--- a/tests/test1/d40/N, 0.5.xlsx
+++ b/tests/test1/d40/N, 0.5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -532,13 +532,13 @@
         <v>359.1179738270162</v>
       </c>
       <c r="F2" t="n">
-        <v>25.29114429592493</v>
+        <v>25.29114429592506</v>
       </c>
       <c r="G2" t="n">
-        <v>84.19712942112291</v>
+        <v>84.19712942112523</v>
       </c>
       <c r="H2" t="n">
-        <v>7.29568269648304</v>
+        <v>7.295682696482958</v>
       </c>
       <c r="I2" t="n">
         <v>22.91574594830793</v>
@@ -547,16 +547,16 @@
         <v>38.28184535070894</v>
       </c>
       <c r="K2" t="n">
-        <v>21.94448860038061</v>
+        <v>21.94448860038067</v>
       </c>
       <c r="L2" t="n">
-        <v>25.39706058097426</v>
+        <v>25.39706058097402</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5958478207706492</v>
+        <v>0.5958478207706521</v>
       </c>
       <c r="N2" t="n">
-        <v>2.093756355921921</v>
+        <v>2.093756355921877</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0003388999999991427</v>
+        <v>0.000250999999998669</v>
       </c>
     </row>
     <row r="3">
@@ -584,13 +584,13 @@
         <v>359.1878273181684</v>
       </c>
       <c r="F3" t="n">
-        <v>24.2140430555867</v>
+        <v>24.21404305559277</v>
       </c>
       <c r="G3" t="n">
-        <v>61.00834819811444</v>
+        <v>61.00834819811459</v>
       </c>
       <c r="H3" t="n">
-        <v>7.542098027046837</v>
+        <v>7.542098027049724</v>
       </c>
       <c r="I3" t="n">
         <v>19.69542397878576</v>
@@ -599,16 +599,16 @@
         <v>43.53167591109425</v>
       </c>
       <c r="K3" t="n">
-        <v>18.59953179931365</v>
+        <v>18.59953179931435</v>
       </c>
       <c r="L3" t="n">
-        <v>27.41366013909143</v>
+        <v>27.41366013909969</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5748432910736437</v>
+        <v>0.5748432910733315</v>
       </c>
       <c r="N3" t="n">
-        <v>2.123137794539639</v>
+        <v>2.123137794538522</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.0003899000000018304</v>
+        <v>0.0002425000000059185</v>
       </c>
     </row>
     <row r="4">
@@ -636,13 +636,13 @@
         <v>0.2083789237027319</v>
       </c>
       <c r="F4" t="n">
-        <v>30.3805441053662</v>
+        <v>30.38054410536594</v>
       </c>
       <c r="G4" t="n">
-        <v>167.8171914911844</v>
+        <v>167.8171914911862</v>
       </c>
       <c r="H4" t="n">
-        <v>4.98334872668311</v>
+        <v>4.983348726683452</v>
       </c>
       <c r="I4" t="n">
         <v>7.555476939874645</v>
@@ -651,16 +651,16 @@
         <v>38.51157200784191</v>
       </c>
       <c r="K4" t="n">
-        <v>6.617654501499348</v>
+        <v>6.617654501499296</v>
       </c>
       <c r="L4" t="n">
-        <v>22.06565345218283</v>
+        <v>22.06565345218212</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4028351718289654</v>
+        <v>0.4028351718289815</v>
       </c>
       <c r="N4" t="n">
-        <v>4.442230281186559</v>
+        <v>4.442230281186908</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0003056000000007941</v>
+        <v>0.0002959999999987417</v>
       </c>
     </row>
     <row r="5">
@@ -688,13 +688,13 @@
         <v>359.1056857632848</v>
       </c>
       <c r="F5" t="n">
-        <v>23.78393437489831</v>
+        <v>23.78393437490029</v>
       </c>
       <c r="G5" t="n">
-        <v>84.09423362324551</v>
+        <v>84.09423362324596</v>
       </c>
       <c r="H5" t="n">
-        <v>6.596816719758259</v>
+        <v>6.596816719759056</v>
       </c>
       <c r="I5" t="n">
         <v>22.79928386085001</v>
@@ -703,16 +703,16 @@
         <v>38.17369412214205</v>
       </c>
       <c r="K5" t="n">
-        <v>21.53511243848753</v>
+        <v>21.53511243848783</v>
       </c>
       <c r="L5" t="n">
-        <v>23.62864086306647</v>
+        <v>23.62864086306869</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7150890421562368</v>
+        <v>0.7150890421561106</v>
       </c>
       <c r="N5" t="n">
-        <v>2.392947562940325</v>
+        <v>2.392947562939972</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.000299299999998226</v>
+        <v>0.001623500000000888</v>
       </c>
     </row>
     <row r="6">
@@ -740,13 +740,13 @@
         <v>359.9747191464285</v>
       </c>
       <c r="F6" t="n">
-        <v>32.81306236459874</v>
+        <v>32.81306236459877</v>
       </c>
       <c r="G6" t="n">
-        <v>179.029236938828</v>
+        <v>179.0292369388281</v>
       </c>
       <c r="H6" t="n">
-        <v>9.809820397680616</v>
+        <v>9.80982039768077</v>
       </c>
       <c r="I6" t="n">
         <v>5.187802718568502</v>
@@ -758,13 +758,13 @@
         <v>4.206961061698129</v>
       </c>
       <c r="L6" t="n">
-        <v>18.47638510434966</v>
+        <v>18.4763851043495</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3217557037378022</v>
+        <v>0.3217557037378038</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9183623453354887</v>
+        <v>0.9183623453355411</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0002822000000008984</v>
+        <v>0.0003097000000025218</v>
       </c>
     </row>
     <row r="7">
@@ -792,13 +792,13 @@
         <v>359.7793862565575</v>
       </c>
       <c r="F7" t="n">
-        <v>26.14854873664325</v>
+        <v>26.14854873664459</v>
       </c>
       <c r="G7" t="n">
-        <v>38.06389758786549</v>
+        <v>38.06389758786595</v>
       </c>
       <c r="H7" t="n">
-        <v>7.57374947425078</v>
+        <v>7.573749474251355</v>
       </c>
       <c r="I7" t="n">
         <v>13.05313401373524</v>
@@ -807,16 +807,16 @@
         <v>51.07363174201134</v>
       </c>
       <c r="K7" t="n">
-        <v>12.2683034342041</v>
+        <v>12.26830343420424</v>
       </c>
       <c r="L7" t="n">
-        <v>31.40476501488917</v>
+        <v>31.40476501489107</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4099323275451515</v>
+        <v>0.409932327545107</v>
       </c>
       <c r="N7" t="n">
-        <v>1.977539198825522</v>
+        <v>1.977539198825306</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0003628000000013287</v>
+        <v>0.0001989999999949532</v>
       </c>
     </row>
     <row r="8">
@@ -844,13 +844,13 @@
         <v>0.1558918367437626</v>
       </c>
       <c r="F8" t="n">
-        <v>32.06361583727793</v>
+        <v>32.06361583727807</v>
       </c>
       <c r="G8" t="n">
-        <v>175.352213637606</v>
+        <v>175.3522136376057</v>
       </c>
       <c r="H8" t="n">
-        <v>9.192538630261001</v>
+        <v>9.192538630260934</v>
       </c>
       <c r="I8" t="n">
         <v>7.610879869883244</v>
@@ -859,16 +859,16 @@
         <v>29.73534467829719</v>
       </c>
       <c r="K8" t="n">
-        <v>6.650645691360033</v>
+        <v>6.650645691360046</v>
       </c>
       <c r="L8" t="n">
-        <v>18.57737355615696</v>
+        <v>18.57737355615719</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3251300432600352</v>
+        <v>0.3251300432600296</v>
       </c>
       <c r="N8" t="n">
-        <v>2.022082708026578</v>
+        <v>2.022082708026527</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0002870999999977641</v>
+        <v>0.0001998000000043021</v>
       </c>
     </row>
     <row r="9">
@@ -896,13 +896,13 @@
         <v>359.1547371480999</v>
       </c>
       <c r="F9" t="n">
-        <v>21.17999002262863</v>
+        <v>21.17999002262822</v>
       </c>
       <c r="G9" t="n">
-        <v>6.155875027218065</v>
+        <v>6.1558750272179</v>
       </c>
       <c r="H9" t="n">
-        <v>14.59400317092958</v>
+        <v>14.59400317092872</v>
       </c>
       <c r="I9" t="n">
         <v>5.176513718887975</v>
@@ -911,16 +911,16 @@
         <v>52.00243301911608</v>
       </c>
       <c r="K9" t="n">
-        <v>4.349305648829882</v>
+        <v>4.349305648829805</v>
       </c>
       <c r="L9" t="n">
-        <v>36.07703815030367</v>
+        <v>36.07703815030223</v>
       </c>
       <c r="M9" t="n">
-        <v>0.505644192149724</v>
+        <v>0.5056441921497554</v>
       </c>
       <c r="N9" t="n">
-        <v>1.358792118701693</v>
+        <v>1.358792118701584</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0002822999999985143</v>
+        <v>0.0002131000000034078</v>
       </c>
     </row>
     <row r="10">
@@ -948,13 +948,13 @@
         <v>359.9543976416901</v>
       </c>
       <c r="F10" t="n">
-        <v>29.82277751655521</v>
+        <v>29.82277751655785</v>
       </c>
       <c r="G10" t="n">
-        <v>162.1688452203489</v>
+        <v>162.1688452203468</v>
       </c>
       <c r="H10" t="n">
-        <v>11.02401241643817</v>
+        <v>11.02401241643902</v>
       </c>
       <c r="I10" t="n">
         <v>20.58725291436772</v>
@@ -963,16 +963,16 @@
         <v>22.65229206771021</v>
       </c>
       <c r="K10" t="n">
-        <v>19.57938082087534</v>
+        <v>19.57938082087571</v>
       </c>
       <c r="L10" t="n">
-        <v>15.50987303797231</v>
+        <v>15.50987303797428</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4178826822519831</v>
+        <v>0.4178826822518832</v>
       </c>
       <c r="N10" t="n">
-        <v>1.516497674083678</v>
+        <v>1.516497674083245</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.001219499999997709</v>
+        <v>0.001001100000003419</v>
       </c>
     </row>
     <row r="11">
@@ -1000,13 +1000,13 @@
         <v>359.9994457226439</v>
       </c>
       <c r="F11" t="n">
-        <v>30.36587874902745</v>
+        <v>30.36587874902719</v>
       </c>
       <c r="G11" t="n">
-        <v>304.7985777651836</v>
+        <v>304.7985777651991</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7909217874022657</v>
+        <v>0.7909217874024163</v>
       </c>
       <c r="I11" t="n">
         <v>1.809925286532582</v>
@@ -1015,16 +1015,16 @@
         <v>48.22894317908594</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7913830310130031</v>
+        <v>0.7913830310129903</v>
       </c>
       <c r="L11" t="n">
-        <v>28.29386355856905</v>
+        <v>28.2938635585691</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4031726395036598</v>
+        <v>0.4031726395036618</v>
       </c>
       <c r="N11" t="n">
-        <v>4.65110651027224</v>
+        <v>4.651106510271816</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.00051300000000154</v>
+        <v>0.0002650000000059549</v>
       </c>
     </row>
     <row r="12">
@@ -1052,13 +1052,13 @@
         <v>359.3342067479352</v>
       </c>
       <c r="F12" t="n">
-        <v>27.40770414900129</v>
+        <v>27.40770414900069</v>
       </c>
       <c r="G12" t="n">
-        <v>25.71088939202896</v>
+        <v>25.71088939202851</v>
       </c>
       <c r="H12" t="n">
-        <v>3.759752683133011</v>
+        <v>3.759752683132843</v>
       </c>
       <c r="I12" t="n">
         <v>6.190703086112159</v>
@@ -1067,16 +1067,16 @@
         <v>34.65047640795692</v>
       </c>
       <c r="K12" t="n">
-        <v>5.560819583524375</v>
+        <v>5.560819583524311</v>
       </c>
       <c r="L12" t="n">
-        <v>28.99094579402162</v>
+        <v>28.99094579402084</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3831749242372797</v>
+        <v>0.383174924237298</v>
       </c>
       <c r="N12" t="n">
-        <v>3.650848263187263</v>
+        <v>3.650848263187204</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.000356000000000023</v>
+        <v>0.0002467999999993253</v>
       </c>
     </row>
     <row r="13">
@@ -1104,13 +1104,13 @@
         <v>359.1252726293474</v>
       </c>
       <c r="F13" t="n">
-        <v>21.94623076238022</v>
+        <v>21.94623076238023</v>
       </c>
       <c r="G13" t="n">
         <v>5.63358257545184</v>
       </c>
       <c r="H13" t="n">
-        <v>11.14653631216882</v>
+        <v>11.14653631216874</v>
       </c>
       <c r="I13" t="n">
         <v>4.573663047849449</v>
@@ -1119,16 +1119,16 @@
         <v>40.78812565334459</v>
       </c>
       <c r="K13" t="n">
-        <v>3.766131938425485</v>
+        <v>3.766131938425472</v>
       </c>
       <c r="L13" t="n">
-        <v>32.70918594115664</v>
+        <v>32.70918594115655</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4877602070468512</v>
+        <v>0.4877602070468527</v>
       </c>
       <c r="N13" t="n">
-        <v>7.319845886021348</v>
+        <v>7.319845886021295</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0003202000000008809</v>
+        <v>0.0002154000000018641</v>
       </c>
     </row>
     <row r="14">
@@ -1156,13 +1156,13 @@
         <v>359.763507084255</v>
       </c>
       <c r="F14" t="n">
-        <v>26.00387346708361</v>
+        <v>26.00387346708321</v>
       </c>
       <c r="G14" t="n">
-        <v>22.66535933804202</v>
+        <v>22.66535933804248</v>
       </c>
       <c r="H14" t="n">
-        <v>7.329731740996173</v>
+        <v>7.329731740995672</v>
       </c>
       <c r="I14" t="n">
         <v>8.875985220654171</v>
@@ -1171,16 +1171,16 @@
         <v>50.60676945916118</v>
       </c>
       <c r="K14" t="n">
-        <v>8.044520578535842</v>
+        <v>8.044520578535804</v>
       </c>
       <c r="L14" t="n">
-        <v>31.81677715139473</v>
+        <v>31.81677715139373</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4510618571637768</v>
+        <v>0.4510618571637986</v>
       </c>
       <c r="N14" t="n">
-        <v>1.911413840939663</v>
+        <v>1.911413840939797</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0003084999999991567</v>
+        <v>0.0002682000000007179</v>
       </c>
     </row>
     <row r="15">
@@ -1208,13 +1208,13 @@
         <v>0.3561953310252952</v>
       </c>
       <c r="F15" t="n">
-        <v>31.28706395451709</v>
+        <v>31.28706395451456</v>
       </c>
       <c r="G15" t="n">
-        <v>169.7310291734367</v>
+        <v>169.7310291734389</v>
       </c>
       <c r="H15" t="n">
-        <v>8.071167355117279</v>
+        <v>8.071167355116872</v>
       </c>
       <c r="I15" t="n">
         <v>10.07090146044474</v>
@@ -1223,16 +1223,16 @@
         <v>32.50749114378547</v>
       </c>
       <c r="K15" t="n">
-        <v>9.175467211181303</v>
+        <v>9.175467211180933</v>
       </c>
       <c r="L15" t="n">
-        <v>19.38791496373911</v>
+        <v>19.38791496373695</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3277355193528597</v>
+        <v>0.3277355193529335</v>
       </c>
       <c r="N15" t="n">
-        <v>2.589042378639165</v>
+        <v>2.589042378639248</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0003124999999997158</v>
+        <v>0.0002106999999966774</v>
       </c>
     </row>
     <row r="16">
@@ -1260,13 +1260,13 @@
         <v>359.2243304443735</v>
       </c>
       <c r="F16" t="n">
-        <v>24.06876786256373</v>
+        <v>24.06876786255791</v>
       </c>
       <c r="G16" t="n">
-        <v>77.80027313317538</v>
+        <v>77.80027313317721</v>
       </c>
       <c r="H16" t="n">
-        <v>7.404037696081199</v>
+        <v>7.404037696078434</v>
       </c>
       <c r="I16" t="n">
         <v>23.38916312472101</v>
@@ -1275,16 +1275,16 @@
         <v>40.02752228674725</v>
       </c>
       <c r="K16" t="n">
-        <v>22.21882532518038</v>
+        <v>22.2188253251797</v>
       </c>
       <c r="L16" t="n">
-        <v>25.19885225261137</v>
+        <v>25.1988522526039</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6575003510484106</v>
+        <v>0.6575003510487598</v>
       </c>
       <c r="N16" t="n">
-        <v>2.270174510315343</v>
+        <v>2.270174510316342</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0002963000000022475</v>
+        <v>0.0001893000000023903</v>
       </c>
     </row>
     <row r="17">
@@ -1312,13 +1312,13 @@
         <v>0.156164240771768</v>
       </c>
       <c r="F17" t="n">
-        <v>31.27277081627947</v>
+        <v>31.27277081627867</v>
       </c>
       <c r="G17" t="n">
-        <v>174.2918511804017</v>
+        <v>174.2918511804023</v>
       </c>
       <c r="H17" t="n">
-        <v>7.388262425249239</v>
+        <v>7.388262425249073</v>
       </c>
       <c r="I17" t="n">
         <v>7.139827121650356</v>
@@ -1327,13 +1327,13 @@
         <v>32.14036686491941</v>
       </c>
       <c r="K17" t="n">
-        <v>6.150908612143499</v>
+        <v>6.150908612143372</v>
       </c>
       <c r="L17" t="n">
-        <v>19.94918428044401</v>
+        <v>19.94918428044339</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3636477887716287</v>
+        <v>0.3636477887716534</v>
       </c>
       <c r="N17" t="n">
         <v>2.505829809312806</v>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0003184000000011622</v>
+        <v>0.0001875999999967348</v>
       </c>
     </row>
     <row r="18">
@@ -1364,13 +1364,13 @@
         <v>359.9360256394331</v>
       </c>
       <c r="F18" t="n">
-        <v>28.06790050671825</v>
+        <v>28.06790050671796</v>
       </c>
       <c r="G18" t="n">
-        <v>45.10135561665469</v>
+        <v>45.10135561665193</v>
       </c>
       <c r="H18" t="n">
-        <v>4.480097815452576</v>
+        <v>4.480097815452782</v>
       </c>
       <c r="I18" t="n">
         <v>10.31962125775608</v>
@@ -1379,16 +1379,16 @@
         <v>46.64286093130009</v>
       </c>
       <c r="K18" t="n">
-        <v>9.601304020738658</v>
+        <v>9.601304020738633</v>
       </c>
       <c r="L18" t="n">
-        <v>29.66177382226286</v>
+        <v>29.66177382226292</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3047394014752429</v>
+        <v>0.3047394014752447</v>
       </c>
       <c r="N18" t="n">
-        <v>2.201892007478936</v>
+        <v>2.201892007478817</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.001455499999998722</v>
+        <v>0.0001870999999979972</v>
       </c>
     </row>
     <row r="19">
@@ -1416,13 +1416,13 @@
         <v>359.8618670549893</v>
       </c>
       <c r="F19" t="n">
-        <v>26.57469737351977</v>
+        <v>26.57469737352002</v>
       </c>
       <c r="G19" t="n">
-        <v>53.87206865226924</v>
+        <v>53.87206865227013</v>
       </c>
       <c r="H19" t="n">
-        <v>4.903950419538089</v>
+        <v>4.90395041953809</v>
       </c>
       <c r="I19" t="n">
         <v>12.95212497878583</v>
@@ -1431,16 +1431,16 @@
         <v>45.29448328127268</v>
       </c>
       <c r="K19" t="n">
-        <v>12.05902346935586</v>
+        <v>12.05902346935588</v>
       </c>
       <c r="L19" t="n">
-        <v>28.04675335501846</v>
+        <v>28.04675335501865</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4105427411126564</v>
+        <v>0.4105427411126501</v>
       </c>
       <c r="N19" t="n">
-        <v>2.069904939408592</v>
+        <v>2.069904939408601</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003101000000000909</v>
+        <v>0.0002348999999952639</v>
       </c>
     </row>
     <row r="20">
@@ -1468,13 +1468,13 @@
         <v>359.9602857780969</v>
       </c>
       <c r="F20" t="n">
-        <v>28.36893417583146</v>
+        <v>28.36893417583533</v>
       </c>
       <c r="G20" t="n">
-        <v>129.8452775671277</v>
+        <v>129.8452775671226</v>
       </c>
       <c r="H20" t="n">
-        <v>6.0704746437077</v>
+        <v>6.070474643708708</v>
       </c>
       <c r="I20" t="n">
         <v>18.50855438297455</v>
@@ -1483,16 +1483,16 @@
         <v>34.20258136458548</v>
       </c>
       <c r="K20" t="n">
-        <v>17.73591622354207</v>
+        <v>17.73591622354254</v>
       </c>
       <c r="L20" t="n">
-        <v>22.13739469025098</v>
+        <v>22.13739469025479</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3907476372664228</v>
+        <v>0.3907476372662963</v>
       </c>
       <c r="N20" t="n">
-        <v>1.926464561770546</v>
+        <v>1.926464561769835</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003430000000008704</v>
+        <v>0.0001942000000028088</v>
       </c>
     </row>
     <row r="21">
@@ -1520,13 +1520,13 @@
         <v>359.8894983686589</v>
       </c>
       <c r="F21" t="n">
-        <v>26.93088293110521</v>
+        <v>26.93088293110523</v>
       </c>
       <c r="G21" t="n">
-        <v>14.46118604811581</v>
+        <v>14.4611860481159</v>
       </c>
       <c r="H21" t="n">
-        <v>6.135376358700767</v>
+        <v>6.135376358700734</v>
       </c>
       <c r="I21" t="n">
         <v>6.192815573298068</v>
@@ -1538,13 +1538,13 @@
         <v>5.372539107882098</v>
       </c>
       <c r="L21" t="n">
-        <v>31.58240060462292</v>
+        <v>31.58240060462289</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3856429078125524</v>
+        <v>0.3856429078125528</v>
       </c>
       <c r="N21" t="n">
-        <v>2.164392869528158</v>
+        <v>2.164392869528164</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0004065999999980363</v>
+        <v>0.0002167000000028452</v>
       </c>
     </row>
     <row r="22">
@@ -1572,13 +1572,13 @@
         <v>359.5580534436913</v>
       </c>
       <c r="F22" t="n">
-        <v>26.86182845019325</v>
+        <v>26.86182845019494</v>
       </c>
       <c r="G22" t="n">
-        <v>102.3720766394789</v>
+        <v>102.3720766394776</v>
       </c>
       <c r="H22" t="n">
-        <v>8.568107997735321</v>
+        <v>8.568107997736089</v>
       </c>
       <c r="I22" t="n">
         <v>27.44393404367798</v>
@@ -1587,16 +1587,16 @@
         <v>37.03369549700079</v>
       </c>
       <c r="K22" t="n">
-        <v>26.53459737420233</v>
+        <v>26.53459737420249</v>
       </c>
       <c r="L22" t="n">
-        <v>24.63683754670865</v>
+        <v>24.63683754671062</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4258283326756809</v>
+        <v>0.4258283326756208</v>
       </c>
       <c r="N22" t="n">
-        <v>1.81724431653223</v>
+        <v>1.817244316532001</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0003084000000015408</v>
+        <v>0.0001967000000036023</v>
       </c>
     </row>
     <row r="23">
@@ -1624,13 +1624,13 @@
         <v>0.02598212475276744</v>
       </c>
       <c r="F23" t="n">
-        <v>31.21023605496504</v>
+        <v>31.21023605496543</v>
       </c>
       <c r="G23" t="n">
-        <v>187.8582660479458</v>
+        <v>187.8582660479427</v>
       </c>
       <c r="H23" t="n">
-        <v>1.103618034477535</v>
+        <v>1.103618034477961</v>
       </c>
       <c r="I23" t="n">
         <v>2.990958436833284</v>
@@ -1639,16 +1639,16 @@
         <v>45.11750226817573</v>
       </c>
       <c r="K23" t="n">
-        <v>2.106616847172901</v>
+        <v>2.106616847172913</v>
       </c>
       <c r="L23" t="n">
-        <v>27.30041604535723</v>
+        <v>27.3004160453571</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4008522727968445</v>
+        <v>0.4008522727968415</v>
       </c>
       <c r="N23" t="n">
-        <v>7.42997183356497</v>
+        <v>7.429971833564733</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0002895000000009418</v>
+        <v>0.0001876999999979034</v>
       </c>
     </row>
     <row r="24">
@@ -1676,13 +1676,13 @@
         <v>0.04597495993259098</v>
       </c>
       <c r="F24" t="n">
-        <v>27.7189264190635</v>
+        <v>27.71892641906232</v>
       </c>
       <c r="G24" t="n">
-        <v>76.52634791730864</v>
+        <v>76.52634791730438</v>
       </c>
       <c r="H24" t="n">
-        <v>2.279327400259175</v>
+        <v>2.279327400259029</v>
       </c>
       <c r="I24" t="n">
         <v>9.419044849063178</v>
@@ -1691,13 +1691,13 @@
         <v>46.36511176493712</v>
       </c>
       <c r="K24" t="n">
-        <v>8.512546411054693</v>
+        <v>8.512546411054553</v>
       </c>
       <c r="L24" t="n">
-        <v>26.02657244141436</v>
+        <v>26.02657244141332</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4516635676239905</v>
+        <v>0.4516635676240285</v>
       </c>
       <c r="N24" t="n">
         <v>3.78381313646261</v>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0003763000000027716</v>
+        <v>0.0002434000000022252</v>
       </c>
     </row>
     <row r="25">
@@ -1728,13 +1728,13 @@
         <v>359.6665059718233</v>
       </c>
       <c r="F25" t="n">
-        <v>26.81151767302893</v>
+        <v>26.8115176730315</v>
       </c>
       <c r="G25" t="n">
-        <v>90.56045547344598</v>
+        <v>90.56045547344644</v>
       </c>
       <c r="H25" t="n">
-        <v>8.957330650675477</v>
+        <v>8.957330650676612</v>
       </c>
       <c r="I25" t="n">
         <v>26.76285261071862</v>
@@ -1743,16 +1743,16 @@
         <v>40.82017006479759</v>
       </c>
       <c r="K25" t="n">
-        <v>26.02577114955838</v>
+        <v>26.02577114955865</v>
       </c>
       <c r="L25" t="n">
-        <v>26.80797520383524</v>
+        <v>26.80797520383805</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3845099893331558</v>
+        <v>0.3845099893330792</v>
       </c>
       <c r="N25" t="n">
-        <v>1.761171897842186</v>
+        <v>1.761171897841791</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0002880000000011762</v>
+        <v>0.0001893000000023903</v>
       </c>
     </row>
     <row r="26">
@@ -1780,13 +1780,13 @@
         <v>359.3353939136754</v>
       </c>
       <c r="F26" t="n">
-        <v>28.48630005087325</v>
+        <v>28.48630005087318</v>
       </c>
       <c r="G26" t="n">
-        <v>155.4142638883334</v>
+        <v>155.4142638883325</v>
       </c>
       <c r="H26" t="n">
-        <v>3.185808224882742</v>
+        <v>3.185808224882647</v>
       </c>
       <c r="I26" t="n">
         <v>6.902497117049264</v>
@@ -1798,13 +1798,13 @@
         <v>6.195158460932928</v>
       </c>
       <c r="L26" t="n">
-        <v>22.52317625215089</v>
+        <v>22.52317625215094</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3935342430665025</v>
+        <v>0.3935342430665029</v>
       </c>
       <c r="N26" t="n">
-        <v>2.514608660718442</v>
+        <v>2.514608660718479</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0002844999999993547</v>
+        <v>0.0001870999999979972</v>
       </c>
     </row>
     <row r="27">
@@ -1832,13 +1832,13 @@
         <v>359.8858634551669</v>
       </c>
       <c r="F27" t="n">
-        <v>30.42028978760679</v>
+        <v>30.42028978760696</v>
       </c>
       <c r="G27" t="n">
-        <v>162.8246478554709</v>
+        <v>162.8246478554701</v>
       </c>
       <c r="H27" t="n">
-        <v>7.902351391154422</v>
+        <v>7.902351391154323</v>
       </c>
       <c r="I27" t="n">
         <v>12.65928260151178</v>
@@ -1847,16 +1847,16 @@
         <v>27.0400161198854</v>
       </c>
       <c r="K27" t="n">
-        <v>11.78328738994637</v>
+        <v>11.7832873899464</v>
       </c>
       <c r="L27" t="n">
-        <v>19.14742079629485</v>
+        <v>19.14742079629519</v>
       </c>
       <c r="M27" t="n">
-        <v>0.4051376528538205</v>
+        <v>0.4051376528538118</v>
       </c>
       <c r="N27" t="n">
-        <v>1.38243717976727</v>
+        <v>1.382437179767257</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0002805999999999642</v>
+        <v>0.00022560000000027</v>
       </c>
     </row>
     <row r="28">
@@ -1884,13 +1884,13 @@
         <v>359.90200339417</v>
       </c>
       <c r="F28" t="n">
-        <v>27.50782167764139</v>
+        <v>27.50782167764173</v>
       </c>
       <c r="G28" t="n">
-        <v>62.00152464447334</v>
+        <v>62.00152464446772</v>
       </c>
       <c r="H28" t="n">
-        <v>4.710707746654522</v>
+        <v>4.710707746655007</v>
       </c>
       <c r="I28" t="n">
         <v>13.26276120110444</v>
@@ -1899,16 +1899,16 @@
         <v>44.8670960835456</v>
       </c>
       <c r="K28" t="n">
-        <v>12.51593139245607</v>
+        <v>12.51593139245609</v>
       </c>
       <c r="L28" t="n">
-        <v>28.2156611174162</v>
+        <v>28.21566111741733</v>
       </c>
       <c r="M28" t="n">
-        <v>0.3776964707828656</v>
+        <v>0.3776964707828446</v>
       </c>
       <c r="N28" t="n">
-        <v>2.194034733781157</v>
+        <v>2.194034733780843</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0003060000000019159</v>
+        <v>0.0001882000000037465</v>
       </c>
     </row>
     <row r="29">
@@ -1936,13 +1936,13 @@
         <v>359.3571972923839</v>
       </c>
       <c r="F29" t="n">
-        <v>24.7454306936173</v>
+        <v>24.74543069361841</v>
       </c>
       <c r="G29" t="n">
-        <v>67.58381362736102</v>
+        <v>67.58381362736053</v>
       </c>
       <c r="H29" t="n">
-        <v>7.874040462188511</v>
+        <v>7.874040462189087</v>
       </c>
       <c r="I29" t="n">
         <v>21.4548724568795</v>
@@ -1951,16 +1951,16 @@
         <v>43.97582692503995</v>
       </c>
       <c r="K29" t="n">
-        <v>20.51449591041444</v>
+        <v>20.51449591041455</v>
       </c>
       <c r="L29" t="n">
-        <v>27.47288783617989</v>
+        <v>27.47288783618145</v>
       </c>
       <c r="M29" t="n">
-        <v>0.5325976888607508</v>
+        <v>0.5325976888606959</v>
       </c>
       <c r="N29" t="n">
-        <v>2.045792565280302</v>
+        <v>2.045792565280108</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.000282699999999636</v>
+        <v>0.0002769000000029109</v>
       </c>
     </row>
     <row r="30">
@@ -1988,13 +1988,13 @@
         <v>359.776833811065</v>
       </c>
       <c r="F30" t="n">
-        <v>29.30350283254229</v>
+        <v>29.30350283254762</v>
       </c>
       <c r="G30" t="n">
-        <v>133.698042710047</v>
+        <v>133.6980427100399</v>
       </c>
       <c r="H30" t="n">
-        <v>6.612759921737204</v>
+        <v>6.612759921738542</v>
       </c>
       <c r="I30" t="n">
         <v>18.54236195781179</v>
@@ -2003,16 +2003,16 @@
         <v>31.31086349853181</v>
       </c>
       <c r="K30" t="n">
-        <v>17.76416974540734</v>
+        <v>17.76416974540792</v>
       </c>
       <c r="L30" t="n">
-        <v>22.266400253722</v>
+        <v>22.26640025372725</v>
       </c>
       <c r="M30" t="n">
-        <v>0.3632391220345704</v>
+        <v>0.3632391220344132</v>
       </c>
       <c r="N30" t="n">
-        <v>1.539657161861544</v>
+        <v>1.539657161860593</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0002844000000017388</v>
+        <v>0.0002160000000017703</v>
       </c>
     </row>
     <row r="31">
@@ -2040,13 +2040,13 @@
         <v>0.2087410631522755</v>
       </c>
       <c r="F31" t="n">
-        <v>31.15853320204422</v>
+        <v>31.15853320204393</v>
       </c>
       <c r="G31" t="n">
-        <v>173.7481211225592</v>
+        <v>173.7481211225595</v>
       </c>
       <c r="H31" t="n">
-        <v>8.166592997883757</v>
+        <v>8.166592997883745</v>
       </c>
       <c r="I31" t="n">
         <v>8.182083613794248</v>
@@ -2055,16 +2055,16 @@
         <v>30.68820409084247</v>
       </c>
       <c r="K31" t="n">
-        <v>7.12842101485046</v>
+        <v>7.128421014850422</v>
       </c>
       <c r="L31" t="n">
-        <v>18.94678377472423</v>
+        <v>18.94678377472394</v>
       </c>
       <c r="M31" t="n">
-        <v>0.384466029810466</v>
+        <v>0.3844660298104769</v>
       </c>
       <c r="N31" t="n">
-        <v>2.038568088116566</v>
+        <v>2.03856808811659</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0003193000000010215</v>
+        <v>0.0002089999999981274</v>
       </c>
     </row>
     <row r="32">
@@ -2092,13 +2092,13 @@
         <v>0.6320263323882001</v>
       </c>
       <c r="F32" t="n">
-        <v>27.4213957496071</v>
+        <v>27.42139574960422</v>
       </c>
       <c r="G32" t="n">
-        <v>159.052233065104</v>
+        <v>159.0522330651058</v>
       </c>
       <c r="H32" t="n">
-        <v>6.853571392887643</v>
+        <v>6.853571392886724</v>
       </c>
       <c r="I32" t="n">
         <v>15.61526795852661</v>
@@ -2107,16 +2107,16 @@
         <v>34.69011036954826</v>
       </c>
       <c r="K32" t="n">
-        <v>14.45304791570855</v>
+        <v>14.45304791570803</v>
       </c>
       <c r="L32" t="n">
-        <v>17.6822481820882</v>
+        <v>17.68224818208615</v>
       </c>
       <c r="M32" t="n">
-        <v>0.4181397499674906</v>
+        <v>0.4181397499676048</v>
       </c>
       <c r="N32" t="n">
-        <v>2.421644813522865</v>
+        <v>2.42164481352344</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0002971999999985542</v>
+        <v>0.00019890000000089</v>
       </c>
     </row>
     <row r="33">
@@ -2144,13 +2144,13 @@
         <v>0.2073786071257917</v>
       </c>
       <c r="F33" t="n">
-        <v>25.28577386061532</v>
+        <v>25.28577386061569</v>
       </c>
       <c r="G33" t="n">
-        <v>55.56467899245754</v>
+        <v>55.56467899245772</v>
       </c>
       <c r="H33" t="n">
-        <v>6.638465029513931</v>
+        <v>6.638465029514068</v>
       </c>
       <c r="I33" t="n">
         <v>17.04592559072634</v>
@@ -2159,16 +2159,16 @@
         <v>50.4312401368904</v>
       </c>
       <c r="K33" t="n">
-        <v>16.0782687510454</v>
+        <v>16.07826875104543</v>
       </c>
       <c r="L33" t="n">
-        <v>28.28011067176501</v>
+        <v>28.28011067176547</v>
       </c>
       <c r="M33" t="n">
-        <v>0.4105902158824596</v>
+        <v>0.4105902158824468</v>
       </c>
       <c r="N33" t="n">
-        <v>2.431067397953599</v>
+        <v>2.43106739795355</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0003057999999995786</v>
+        <v>0.0001986999999985528</v>
       </c>
     </row>
     <row r="34">
@@ -2196,13 +2196,13 @@
         <v>0.1744472254947149</v>
       </c>
       <c r="F34" t="n">
-        <v>30.43071558420694</v>
+        <v>30.43071558420811</v>
       </c>
       <c r="G34" t="n">
-        <v>171.9315801365298</v>
+        <v>171.9315801365283</v>
       </c>
       <c r="H34" t="n">
-        <v>8.504105202466768</v>
+        <v>8.504105202466686</v>
       </c>
       <c r="I34" t="n">
         <v>9.72133225138751</v>
@@ -2211,16 +2211,16 @@
         <v>29.71000445935035</v>
       </c>
       <c r="K34" t="n">
-        <v>8.653735594261192</v>
+        <v>8.653735594261395</v>
       </c>
       <c r="L34" t="n">
-        <v>17.91424373754424</v>
+        <v>17.91424373754556</v>
       </c>
       <c r="M34" t="n">
-        <v>0.377478822621001</v>
+        <v>0.3774788226209537</v>
       </c>
       <c r="N34" t="n">
-        <v>1.707024499614308</v>
+        <v>1.70702449961411</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0003160999999991532</v>
+        <v>0.0002357000000046128</v>
       </c>
     </row>
     <row r="35">
@@ -2248,13 +2248,13 @@
         <v>0.1594267525540688</v>
       </c>
       <c r="F35" t="n">
-        <v>28.45679772186908</v>
+        <v>28.45679772186815</v>
       </c>
       <c r="G35" t="n">
-        <v>80.79169295711306</v>
+        <v>80.79169295712084</v>
       </c>
       <c r="H35" t="n">
-        <v>2.748988878476174</v>
+        <v>2.748988878475869</v>
       </c>
       <c r="I35" t="n">
         <v>10.51069784481993</v>
@@ -2263,16 +2263,16 @@
         <v>45.30447558370837</v>
       </c>
       <c r="K35" t="n">
-        <v>9.697277091220817</v>
+        <v>9.697277091220716</v>
       </c>
       <c r="L35" t="n">
-        <v>26.75043538713705</v>
+        <v>26.7504353871356</v>
       </c>
       <c r="M35" t="n">
-        <v>0.3537265598594636</v>
+        <v>0.3537265598594945</v>
       </c>
       <c r="N35" t="n">
-        <v>3.469240090264563</v>
+        <v>3.469240090264931</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0002859999999991203</v>
+        <v>0.0002014999999957467</v>
       </c>
     </row>
     <row r="36">
@@ -2300,13 +2300,13 @@
         <v>359.8780824496862</v>
       </c>
       <c r="F36" t="n">
-        <v>28.54305653027989</v>
+        <v>28.54305653027967</v>
       </c>
       <c r="G36" t="n">
-        <v>2.718401055981525</v>
+        <v>2.71840105598136</v>
       </c>
       <c r="H36" t="n">
-        <v>4.901245304075532</v>
+        <v>4.901245304075713</v>
       </c>
       <c r="I36" t="n">
         <v>3.254530440680533</v>
@@ -2315,16 +2315,16 @@
         <v>52.19254532706056</v>
       </c>
       <c r="K36" t="n">
-        <v>2.500319907287699</v>
+        <v>2.500319907287686</v>
       </c>
       <c r="L36" t="n">
         <v>31.83180990591999</v>
       </c>
       <c r="M36" t="n">
-        <v>0.3688014516109702</v>
+        <v>0.3688014516109726</v>
       </c>
       <c r="N36" t="n">
-        <v>2.45304483695989</v>
+        <v>2.453044836959858</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0002780000000015548</v>
+        <v>0.0001886000000013155</v>
       </c>
     </row>
     <row r="37">
@@ -2352,13 +2352,13 @@
         <v>0.9448683550439242</v>
       </c>
       <c r="F37" t="n">
-        <v>26.32376703164369</v>
+        <v>26.32376703164254</v>
       </c>
       <c r="G37" t="n">
-        <v>168.1289746724196</v>
+        <v>168.1289746724221</v>
       </c>
       <c r="H37" t="n">
-        <v>6.890563165030562</v>
+        <v>6.890563165030647</v>
       </c>
       <c r="I37" t="n">
         <v>13.37639473419913</v>
@@ -2367,16 +2367,16 @@
         <v>39.51197959750446</v>
       </c>
       <c r="K37" t="n">
-        <v>11.95453487874119</v>
+        <v>11.95453487874095</v>
       </c>
       <c r="L37" t="n">
-        <v>15.95808499667036</v>
+        <v>15.95808499666899</v>
       </c>
       <c r="M37" t="n">
-        <v>0.5979088354157683</v>
+        <v>0.5979088354158573</v>
       </c>
       <c r="N37" t="n">
-        <v>3.562006680256519</v>
+        <v>3.562006680256735</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0002816000000009922</v>
+        <v>0.0001867999999944914</v>
       </c>
     </row>
     <row r="38">
@@ -2404,13 +2404,13 @@
         <v>359.6617933671228</v>
       </c>
       <c r="F38" t="n">
-        <v>27.76258366815992</v>
+        <v>27.76258366815983</v>
       </c>
       <c r="G38" t="n">
-        <v>132.0687062386729</v>
+        <v>132.0687062386752</v>
       </c>
       <c r="H38" t="n">
-        <v>6.419705096967787</v>
+        <v>6.419705096967886</v>
       </c>
       <c r="I38" t="n">
         <v>19.54422612244915</v>
@@ -2419,16 +2419,16 @@
         <v>31.10945420982688</v>
       </c>
       <c r="K38" t="n">
-        <v>18.59977817861778</v>
+        <v>18.59977817861781</v>
       </c>
       <c r="L38" t="n">
-        <v>21.0854303026634</v>
+        <v>21.08543030266298</v>
       </c>
       <c r="M38" t="n">
-        <v>0.4646745084552558</v>
+        <v>0.4646745084552636</v>
       </c>
       <c r="N38" t="n">
-        <v>1.72610247642914</v>
+        <v>1.726102476429184</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0003165999999978908</v>
+        <v>0.0001876999999979034</v>
       </c>
     </row>
     <row r="39">
@@ -2456,13 +2456,13 @@
         <v>0.02723180616874827</v>
       </c>
       <c r="F39" t="n">
-        <v>32.2764463757227</v>
+        <v>32.27644637572283</v>
       </c>
       <c r="G39" t="n">
-        <v>176.7361681831584</v>
+        <v>176.7361681831585</v>
       </c>
       <c r="H39" t="n">
-        <v>8.730917224935697</v>
+        <v>8.730917224935903</v>
       </c>
       <c r="I39" t="n">
         <v>6.186312769693502</v>
@@ -2471,16 +2471,16 @@
         <v>27.41620526036646</v>
       </c>
       <c r="K39" t="n">
-        <v>5.303456251934614</v>
+        <v>5.303456251934627</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28251998080239</v>
+        <v>19.28251998080227</v>
       </c>
       <c r="M39" t="n">
-        <v>0.3476036783965799</v>
+        <v>0.3476036783965794</v>
       </c>
       <c r="N39" t="n">
-        <v>0.930527198669425</v>
+        <v>0.9305271986694945</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0002977999999984604</v>
+        <v>0.0002481000000003064</v>
       </c>
     </row>
     <row r="40">
@@ -2508,13 +2508,13 @@
         <v>359.4956471759416</v>
       </c>
       <c r="F40" t="n">
-        <v>24.84118371537669</v>
+        <v>24.84118371538148</v>
       </c>
       <c r="G40" t="n">
-        <v>63.90947589209068</v>
+        <v>63.90947589208969</v>
       </c>
       <c r="H40" t="n">
-        <v>7.82152452030412</v>
+        <v>7.821524520306522</v>
       </c>
       <c r="I40" t="n">
         <v>20.5252257742755</v>
@@ -2523,16 +2523,16 @@
         <v>45.96040818063756</v>
       </c>
       <c r="K40" t="n">
-        <v>19.59575933136348</v>
+        <v>19.59575933136399</v>
       </c>
       <c r="L40" t="n">
-        <v>27.97171689775045</v>
+        <v>27.97171689775712</v>
       </c>
       <c r="M40" t="n">
-        <v>0.5094155588327607</v>
+        <v>0.5094155588325415</v>
       </c>
       <c r="N40" t="n">
-        <v>2.050044045828979</v>
+        <v>2.050044045828183</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0002868000000013637</v>
+        <v>0.0002086000000005583</v>
       </c>
     </row>
     <row r="41">
@@ -2560,13 +2560,13 @@
         <v>359.297580216989</v>
       </c>
       <c r="F41" t="n">
-        <v>25.01054827071224</v>
+        <v>25.0105482707042</v>
       </c>
       <c r="G41" t="n">
-        <v>88.18069917202416</v>
+        <v>88.18069917202978</v>
       </c>
       <c r="H41" t="n">
-        <v>7.507241695371757</v>
+        <v>7.507241695368022</v>
       </c>
       <c r="I41" t="n">
         <v>24.59356450720858</v>
@@ -2575,16 +2575,16 @@
         <v>38.67756631959967</v>
       </c>
       <c r="K41" t="n">
-        <v>23.51526137655978</v>
+        <v>23.51526137655891</v>
       </c>
       <c r="L41" t="n">
-        <v>24.73222591878509</v>
+        <v>24.73222591877505</v>
       </c>
       <c r="M41" t="n">
-        <v>0.5678526973288762</v>
+        <v>0.5678526973292876</v>
       </c>
       <c r="N41" t="n">
-        <v>2.134463861351118</v>
+        <v>2.134463861352367</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0003045999999997662</v>
+        <v>0.0001987999999997214</v>
       </c>
     </row>
     <row r="42">
@@ -2612,13 +2612,13 @@
         <v>0.3037738486056159</v>
       </c>
       <c r="F42" t="n">
-        <v>30.41420248170387</v>
+        <v>30.41420248170334</v>
       </c>
       <c r="G42" t="n">
-        <v>165.2554501237428</v>
+        <v>165.2554501237447</v>
       </c>
       <c r="H42" t="n">
-        <v>4.551331710723885</v>
+        <v>4.551331710724041</v>
       </c>
       <c r="I42" t="n">
         <v>7.93230154723043</v>
@@ -2627,16 +2627,16 @@
         <v>39.01438474191893</v>
       </c>
       <c r="K42" t="n">
-        <v>6.892579819971434</v>
+        <v>6.892579819971346</v>
       </c>
       <c r="L42" t="n">
-        <v>22.67957178710293</v>
+        <v>22.67957178710216</v>
       </c>
       <c r="M42" t="n">
-        <v>0.3770296084102099</v>
+        <v>0.3770296084102309</v>
       </c>
       <c r="N42" t="n">
-        <v>3.859643207206842</v>
+        <v>3.859643207207049</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.000283300000003095</v>
+        <v>0.0001949000000038836</v>
       </c>
     </row>
     <row r="43">
@@ -2664,13 +2664,13 @@
         <v>0.1353561615336547</v>
       </c>
       <c r="F43" t="n">
-        <v>30.4835707574326</v>
+        <v>30.48357075743299</v>
       </c>
       <c r="G43" t="n">
         <v>168.167442429312</v>
       </c>
       <c r="H43" t="n">
-        <v>3.412866074377545</v>
+        <v>3.412866074377701</v>
       </c>
       <c r="I43" t="n">
         <v>5.928428201044865</v>
@@ -2679,16 +2679,16 @@
         <v>40.60700288008367</v>
       </c>
       <c r="K43" t="n">
-        <v>4.987800965484839</v>
+        <v>4.98780096548489</v>
       </c>
       <c r="L43" t="n">
-        <v>23.9493986126849</v>
+        <v>23.9493986126851</v>
       </c>
       <c r="M43" t="n">
-        <v>0.3629591985229335</v>
+        <v>0.3629591985229246</v>
       </c>
       <c r="N43" t="n">
-        <v>4.092582147262893</v>
+        <v>4.092582147262767</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0002869999999965955</v>
+        <v>0.0002003999999971029</v>
       </c>
     </row>
     <row r="44">
@@ -2716,13 +2716,13 @@
         <v>359.7516429234944</v>
       </c>
       <c r="F44" t="n">
-        <v>25.92888660878295</v>
+        <v>25.92888660879023</v>
       </c>
       <c r="G44" t="n">
-        <v>66.27588749374554</v>
+        <v>66.27588749374553</v>
       </c>
       <c r="H44" t="n">
-        <v>8.335818071554701</v>
+        <v>8.335818071558133</v>
       </c>
       <c r="I44" t="n">
         <v>21.26723767084115</v>
@@ -2731,16 +2731,16 @@
         <v>47.24055450089488</v>
       </c>
       <c r="K44" t="n">
-        <v>20.49064018223187</v>
+        <v>20.4906401822326</v>
       </c>
       <c r="L44" t="n">
-        <v>29.18325342909309</v>
+        <v>29.18325342910277</v>
       </c>
       <c r="M44" t="n">
-        <v>0.4146800545949424</v>
+        <v>0.4146800545946903</v>
       </c>
       <c r="N44" t="n">
-        <v>1.913422207580427</v>
+        <v>1.913422207579312</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.000325600000000037</v>
+        <v>0.0006902999999951476</v>
       </c>
     </row>
     <row r="45">
@@ -2768,13 +2768,13 @@
         <v>359.8713000373277</v>
       </c>
       <c r="F45" t="n">
-        <v>27.17833581042146</v>
+        <v>27.17833581042096</v>
       </c>
       <c r="G45" t="n">
-        <v>17.1822818794258</v>
+        <v>17.18228187942535</v>
       </c>
       <c r="H45" t="n">
-        <v>5.319834124944111</v>
+        <v>5.319834124943983</v>
       </c>
       <c r="I45" t="n">
         <v>6.462352581508514</v>
@@ -2783,16 +2783,16 @@
         <v>49.26789962097028</v>
       </c>
       <c r="K45" t="n">
-        <v>5.579534487604056</v>
+        <v>5.579534487604005</v>
       </c>
       <c r="L45" t="n">
-        <v>30.80675162490579</v>
+        <v>30.80675162490515</v>
       </c>
       <c r="M45" t="n">
-        <v>0.3795257767089956</v>
+        <v>0.3795257767090097</v>
       </c>
       <c r="N45" t="n">
-        <v>2.143288961513971</v>
+        <v>2.143288961514049</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0003028000000000475</v>
+        <v>0.0002548000000004436</v>
       </c>
     </row>
     <row r="46">
@@ -2820,13 +2820,13 @@
         <v>0.3753073586279415</v>
       </c>
       <c r="F46" t="n">
-        <v>32.7423007325995</v>
+        <v>32.74230073259857</v>
       </c>
       <c r="G46" t="n">
-        <v>178.8445031266956</v>
+        <v>178.8445031266957</v>
       </c>
       <c r="H46" t="n">
-        <v>10.09969731914987</v>
+        <v>10.09969731914917</v>
       </c>
       <c r="I46" t="n">
         <v>6.414402748801739</v>
@@ -2835,16 +2835,16 @@
         <v>33.15455134515927</v>
       </c>
       <c r="K46" t="n">
-        <v>5.169916276874735</v>
+        <v>5.169916276874621</v>
       </c>
       <c r="L46" t="n">
-        <v>18.08162235651431</v>
+        <v>18.08162235651419</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4239824862205531</v>
+        <v>0.4239824862205771</v>
       </c>
       <c r="N46" t="n">
-        <v>5.213613525025266</v>
+        <v>5.213613525024903</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0002840000000006171</v>
+        <v>0.00022560000000027</v>
       </c>
     </row>
     <row r="47">
@@ -2872,13 +2872,13 @@
         <v>359.9868126135752</v>
       </c>
       <c r="F47" t="n">
-        <v>32.79437880986426</v>
+        <v>32.79437880986433</v>
       </c>
       <c r="G47" t="n">
         <v>181.71673370767</v>
       </c>
       <c r="H47" t="n">
-        <v>9.77558993004795</v>
+        <v>9.775589930048067</v>
       </c>
       <c r="I47" t="n">
         <v>3.467189284049275</v>
@@ -2890,13 +2890,13 @@
         <v>2.518032904271033</v>
       </c>
       <c r="L47" t="n">
-        <v>18.47040705806042</v>
+        <v>18.47040705806034</v>
       </c>
       <c r="M47" t="n">
-        <v>0.3221405584048498</v>
+        <v>0.3221405584048499</v>
       </c>
       <c r="N47" t="n">
-        <v>0.8560500478965368</v>
+        <v>0.8560500478965727</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0002852999999980455</v>
+        <v>0.0002234999999970455</v>
       </c>
     </row>
     <row r="48">
@@ -2924,13 +2924,13 @@
         <v>359.7075620800647</v>
       </c>
       <c r="F48" t="n">
-        <v>29.40631334796219</v>
+        <v>29.40631334795992</v>
       </c>
       <c r="G48" t="n">
-        <v>143.4181124380431</v>
+        <v>143.4181124380444</v>
       </c>
       <c r="H48" t="n">
-        <v>7.33995352011259</v>
+        <v>7.33995352011188</v>
       </c>
       <c r="I48" t="n">
         <v>18.46712300039825</v>
@@ -2939,16 +2939,16 @@
         <v>28.96028508939844</v>
       </c>
       <c r="K48" t="n">
-        <v>17.63993157250065</v>
+        <v>17.63993157250034</v>
       </c>
       <c r="L48" t="n">
-        <v>20.68956606602215</v>
+        <v>20.68956606602033</v>
       </c>
       <c r="M48" t="n">
-        <v>0.4081350910942255</v>
+        <v>0.4081350910942983</v>
       </c>
       <c r="N48" t="n">
-        <v>1.512799885438667</v>
+        <v>1.512799885439041</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0003195999999974219</v>
+        <v>0.0002753999999995926</v>
       </c>
     </row>
     <row r="49">
@@ -2976,13 +2976,13 @@
         <v>0.4240047378830676</v>
       </c>
       <c r="F49" t="n">
-        <v>28.45975050550942</v>
+        <v>28.45975050550991</v>
       </c>
       <c r="G49" t="n">
-        <v>65.02250620058034</v>
+        <v>65.02250620057704</v>
       </c>
       <c r="H49" t="n">
-        <v>1.611628593397202</v>
+        <v>1.611628593397342</v>
       </c>
       <c r="I49" t="n">
         <v>7.737749257815719</v>
@@ -2991,16 +2991,16 @@
         <v>54.40266989146843</v>
       </c>
       <c r="K49" t="n">
-        <v>6.705086972055739</v>
+        <v>6.705086972055803</v>
       </c>
       <c r="L49" t="n">
-        <v>26.84284192857191</v>
+        <v>26.84284192857258</v>
       </c>
       <c r="M49" t="n">
-        <v>0.4188435112209924</v>
+        <v>0.4188435112209745</v>
       </c>
       <c r="N49" t="n">
-        <v>4.44314394033791</v>
+        <v>4.443143940337769</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0002919999999981826</v>
+        <v>0.00023209999999807</v>
       </c>
     </row>
     <row r="50">
@@ -3028,13 +3028,13 @@
         <v>0.4968156599642271</v>
       </c>
       <c r="F50" t="n">
-        <v>30.98028901064884</v>
+        <v>30.98028901064822</v>
       </c>
       <c r="G50" t="n">
-        <v>201.8193253489987</v>
+        <v>201.8193253490049</v>
       </c>
       <c r="H50" t="n">
-        <v>2.597535960241457</v>
+        <v>2.597535960240722</v>
       </c>
       <c r="I50" t="n">
         <v>2.206985498596769</v>
@@ -3043,16 +3043,16 @@
         <v>53.83741801538552</v>
       </c>
       <c r="K50" t="n">
-        <v>0.631078654278913</v>
+        <v>0.6310786542789256</v>
       </c>
       <c r="L50" t="n">
-        <v>25.47056708126077</v>
+        <v>25.47056708126108</v>
       </c>
       <c r="M50" t="n">
-        <v>0.4850756173137371</v>
+        <v>0.4850756173137389</v>
       </c>
       <c r="N50" t="n">
-        <v>7.331322149957824</v>
+        <v>7.331322149957792</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0002945000000025289</v>
+        <v>0.0001970000000000027</v>
       </c>
     </row>
     <row r="51">
@@ -3080,13 +3080,13 @@
         <v>0.5215795391032959</v>
       </c>
       <c r="F51" t="n">
-        <v>29.21331759377521</v>
+        <v>29.21331759377606</v>
       </c>
       <c r="G51" t="n">
-        <v>160.0367876350463</v>
+        <v>160.0367876350429</v>
       </c>
       <c r="H51" t="n">
-        <v>4.337090565670962</v>
+        <v>4.337090565670786</v>
       </c>
       <c r="I51" t="n">
         <v>9.522643035896857</v>
@@ -3095,16 +3095,16 @@
         <v>42.15412902103607</v>
       </c>
       <c r="K51" t="n">
-        <v>8.421522829205895</v>
+        <v>8.421522829206022</v>
       </c>
       <c r="L51" t="n">
-        <v>21.94054071632385</v>
+        <v>21.94054071632503</v>
       </c>
       <c r="M51" t="n">
-        <v>0.3709848705842809</v>
+        <v>0.370984870584248</v>
       </c>
       <c r="N51" t="n">
-        <v>4.40325028839011</v>
+        <v>4.403250288390025</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.000306699999999438</v>
+        <v>0.0001906999999974346</v>
       </c>
     </row>
     <row r="52">
@@ -3132,13 +3132,13 @@
         <v>0.7801760543418236</v>
       </c>
       <c r="F52" t="n">
-        <v>27.80255306552225</v>
+        <v>27.80255306552177</v>
       </c>
       <c r="G52" t="n">
-        <v>167.2038184154342</v>
+        <v>167.203818415435</v>
       </c>
       <c r="H52" t="n">
-        <v>6.678557496714792</v>
+        <v>6.678557496714776</v>
       </c>
       <c r="I52" t="n">
         <v>12.12114158782843</v>
@@ -3147,16 +3147,16 @@
         <v>38.3554914922189</v>
       </c>
       <c r="K52" t="n">
-        <v>10.83453667452357</v>
+        <v>10.8345366745235</v>
       </c>
       <c r="L52" t="n">
-        <v>17.68361148971422</v>
+        <v>17.68361148971372</v>
       </c>
       <c r="M52" t="n">
-        <v>0.4781961130560444</v>
+        <v>0.4781961130560686</v>
       </c>
       <c r="N52" t="n">
-        <v>3.584599300818035</v>
+        <v>3.584599300818091</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0002833999999971581</v>
+        <v>0.0002318000000016696</v>
       </c>
     </row>
     <row r="53">
@@ -3184,13 +3184,13 @@
         <v>0.1452515866743192</v>
       </c>
       <c r="F53" t="n">
-        <v>30.12935057524818</v>
+        <v>30.1293505752482</v>
       </c>
       <c r="G53" t="n">
-        <v>163.9531852819808</v>
+        <v>163.9531852819807</v>
       </c>
       <c r="H53" t="n">
-        <v>4.306297459822431</v>
+        <v>4.306297459822434</v>
       </c>
       <c r="I53" t="n">
         <v>7.748476824274211</v>
@@ -3202,10 +3202,10 @@
         <v>6.766764754573305</v>
       </c>
       <c r="L53" t="n">
-        <v>22.70484361041217</v>
+        <v>22.70484361041219</v>
       </c>
       <c r="M53" t="n">
-        <v>0.3502818628694846</v>
+        <v>0.3502818628694843</v>
       </c>
       <c r="N53" t="n">
         <v>2.44777428513501</v>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.000293800000001454</v>
+        <v>0.0002455999999995129</v>
       </c>
     </row>
     <row r="54">
@@ -3236,13 +3236,13 @@
         <v>359.7402620796929</v>
       </c>
       <c r="F54" t="n">
-        <v>30.53755841249529</v>
+        <v>30.53755841249567</v>
       </c>
       <c r="G54" t="n">
-        <v>141.2750886755201</v>
+        <v>141.2750886755273</v>
       </c>
       <c r="H54" t="n">
-        <v>1.589671241410783</v>
+        <v>1.589671241411049</v>
       </c>
       <c r="I54" t="n">
         <v>5.48941339683741</v>
@@ -3251,16 +3251,16 @@
         <v>34.1625217894218</v>
       </c>
       <c r="K54" t="n">
-        <v>4.812422218569438</v>
+        <v>4.812422218569464</v>
       </c>
       <c r="L54" t="n">
-        <v>26.52616037768998</v>
+        <v>26.52616037768995</v>
       </c>
       <c r="M54" t="n">
-        <v>0.336511718821026</v>
+        <v>0.3365117188210221</v>
       </c>
       <c r="N54" t="n">
-        <v>2.014497454270126</v>
+        <v>2.014497454269738</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0009304000000014412</v>
+        <v>0.000190599999996266</v>
       </c>
     </row>
     <row r="55">
@@ -3288,13 +3288,13 @@
         <v>359.8970675665747</v>
       </c>
       <c r="F55" t="n">
-        <v>29.44697895295467</v>
+        <v>29.4469789529557</v>
       </c>
       <c r="G55" t="n">
-        <v>160.528441150255</v>
+        <v>160.528441150253</v>
       </c>
       <c r="H55" t="n">
-        <v>7.559065595426492</v>
+        <v>7.559065595426503</v>
       </c>
       <c r="I55" t="n">
         <v>13.68504178555428</v>
@@ -3303,16 +3303,16 @@
         <v>27.82199853704786</v>
       </c>
       <c r="K55" t="n">
-        <v>12.76559833521352</v>
+        <v>12.76559833521365</v>
       </c>
       <c r="L55" t="n">
-        <v>18.74173476739437</v>
+        <v>18.74173476739555</v>
       </c>
       <c r="M55" t="n">
-        <v>0.416167506307582</v>
+        <v>0.4161675063075411</v>
       </c>
       <c r="N55" t="n">
-        <v>1.535630402020636</v>
+        <v>1.535630402020477</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.000301600000000235</v>
+        <v>0.000201300000000515</v>
       </c>
     </row>
     <row r="56">
@@ -3340,13 +3340,13 @@
         <v>0.9261053723064553</v>
       </c>
       <c r="F56" t="n">
-        <v>26.73837384359615</v>
+        <v>26.73837384359621</v>
       </c>
       <c r="G56" t="n">
-        <v>161.4949865224158</v>
+        <v>161.4949865224147</v>
       </c>
       <c r="H56" t="n">
-        <v>5.923115241796337</v>
+        <v>5.923115241796179</v>
       </c>
       <c r="I56" t="n">
         <v>13.80604339457914</v>
@@ -3355,16 +3355,16 @@
         <v>40.75218031113259</v>
       </c>
       <c r="K56" t="n">
-        <v>12.51841329630482</v>
+        <v>12.51841329630483</v>
       </c>
       <c r="L56" t="n">
-        <v>17.80148500504062</v>
+        <v>17.8014850050409</v>
       </c>
       <c r="M56" t="n">
-        <v>0.4774861854596599</v>
+        <v>0.4774861854596519</v>
       </c>
       <c r="N56" t="n">
-        <v>3.894851767488725</v>
+        <v>3.894851767488733</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0002870999999977641</v>
+        <v>0.0002336000000013883</v>
       </c>
     </row>
     <row r="57">
@@ -3392,13 +3392,13 @@
         <v>0.8118655573170027</v>
       </c>
       <c r="F57" t="n">
-        <v>29.37308827042744</v>
+        <v>29.37308827042729</v>
       </c>
       <c r="G57" t="n">
-        <v>176.8366503060485</v>
+        <v>176.8366503060487</v>
       </c>
       <c r="H57" t="n">
-        <v>4.611879547517653</v>
+        <v>4.611879547517658</v>
       </c>
       <c r="I57" t="n">
         <v>6.567392205827259</v>
@@ -3407,16 +3407,16 @@
         <v>54.58643989705576</v>
       </c>
       <c r="K57" t="n">
-        <v>5.093306267226879</v>
+        <v>5.093306267226866</v>
       </c>
       <c r="L57" t="n">
-        <v>21.31210637802036</v>
+        <v>21.3121063780202</v>
       </c>
       <c r="M57" t="n">
-        <v>0.5484780985478543</v>
+        <v>0.5484780985478626</v>
       </c>
       <c r="N57" t="n">
-        <v>7.09992257571228</v>
+        <v>7.099922575712289</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0002820999999997298</v>
+        <v>0.0002440000000021314</v>
       </c>
     </row>
     <row r="58">
@@ -3444,13 +3444,13 @@
         <v>0.5188215877512897</v>
       </c>
       <c r="F58" t="n">
-        <v>34.82211800255963</v>
+        <v>34.82211800256019</v>
       </c>
       <c r="G58" t="n">
-        <v>183.9501737625214</v>
+        <v>183.9501737625212</v>
       </c>
       <c r="H58" t="n">
-        <v>15.77052728428979</v>
+        <v>15.77052728429049</v>
       </c>
       <c r="I58" t="n">
         <v>3.134105438173524</v>
@@ -3459,16 +3459,16 @@
         <v>29.03628849697263</v>
       </c>
       <c r="K58" t="n">
-        <v>0.7828551368275579</v>
+        <v>0.7828551368275452</v>
       </c>
       <c r="L58" t="n">
-        <v>13.32589761772316</v>
+        <v>13.32589761772288</v>
       </c>
       <c r="M58" t="n">
-        <v>0.6413831956840992</v>
+        <v>0.6413831956840957</v>
       </c>
       <c r="N58" t="n">
-        <v>4.791040360393324</v>
+        <v>4.791040360393586</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0003220999999982155</v>
+        <v>0.0002488000000013812</v>
       </c>
     </row>
     <row r="59">
@@ -3496,13 +3496,13 @@
         <v>0.06552607867345203</v>
       </c>
       <c r="F59" t="n">
-        <v>28.67116479011195</v>
+        <v>28.67116479011164</v>
       </c>
       <c r="G59" t="n">
-        <v>13.03860941339383</v>
+        <v>13.03860941338542</v>
       </c>
       <c r="H59" t="n">
-        <v>0.6130887937856792</v>
+        <v>0.6130887937860974</v>
       </c>
       <c r="I59" t="n">
         <v>3.955386232874815</v>
@@ -3511,16 +3511,16 @@
         <v>44.14878636314997</v>
       </c>
       <c r="K59" t="n">
-        <v>2.927831464620155</v>
+        <v>2.927831464620142</v>
       </c>
       <c r="L59" t="n">
-        <v>26.80651383179578</v>
+        <v>26.80651383179599</v>
       </c>
       <c r="M59" t="n">
-        <v>0.4157126501481939</v>
+        <v>0.415712650148195</v>
       </c>
       <c r="N59" t="n">
-        <v>3.212853931543997</v>
+        <v>3.212853931544025</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0002987999999994884</v>
+        <v>0.0001955000000037899</v>
       </c>
     </row>
     <row r="60">
@@ -3548,13 +3548,13 @@
         <v>0.3800930730872643</v>
       </c>
       <c r="F60" t="n">
-        <v>27.19623478375813</v>
+        <v>27.19623478375889</v>
       </c>
       <c r="G60" t="n">
-        <v>106.2110078324925</v>
+        <v>106.2110078324904</v>
       </c>
       <c r="H60" t="n">
-        <v>3.53519894214549</v>
+        <v>3.535198942145654</v>
       </c>
       <c r="I60" t="n">
         <v>14.02411002723861</v>
@@ -3563,16 +3563,16 @@
         <v>42.81185243735961</v>
       </c>
       <c r="K60" t="n">
-        <v>13.0541368687344</v>
+        <v>13.0541368687345</v>
       </c>
       <c r="L60" t="n">
-        <v>24.01557696271137</v>
+        <v>24.01557696271225</v>
       </c>
       <c r="M60" t="n">
-        <v>0.3591376684167816</v>
+        <v>0.3591376684167573</v>
       </c>
       <c r="N60" t="n">
-        <v>3.436199820800298</v>
+        <v>3.436199820800135</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0002996000000017318</v>
+        <v>0.0001890000000059899</v>
       </c>
     </row>
     <row r="61">
@@ -3600,13 +3600,13 @@
         <v>0.8346417606973641</v>
       </c>
       <c r="F61" t="n">
-        <v>32.94801745019164</v>
+        <v>32.9480174501914</v>
       </c>
       <c r="G61" t="n">
-        <v>184.1722507694953</v>
+        <v>184.1722507694954</v>
       </c>
       <c r="H61" t="n">
-        <v>16.87605758025555</v>
+        <v>16.8760575802553</v>
       </c>
       <c r="I61" t="n">
         <v>4.618349672385955</v>
@@ -3615,16 +3615,16 @@
         <v>31.77994929725002</v>
       </c>
       <c r="K61" t="n">
-        <v>1.001045496953729</v>
+        <v>1.001045496953716</v>
       </c>
       <c r="L61" t="n">
-        <v>10.13210576676372</v>
+        <v>10.13210576676378</v>
       </c>
       <c r="M61" t="n">
-        <v>1.004124201655235</v>
+        <v>1.004124201655245</v>
       </c>
       <c r="N61" t="n">
-        <v>8.605775389742307</v>
+        <v>8.605775389742181</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0007079999999994868</v>
+        <v>0.0002105000000014456</v>
       </c>
     </row>
     <row r="62">
@@ -3652,13 +3652,13 @@
         <v>0.4608854966065385</v>
       </c>
       <c r="F62" t="n">
-        <v>29.43996247046076</v>
+        <v>29.43996247046189</v>
       </c>
       <c r="G62" t="n">
-        <v>167.9868578541462</v>
+        <v>167.9868578541449</v>
       </c>
       <c r="H62" t="n">
-        <v>5.315659219319922</v>
+        <v>5.315659219320089</v>
       </c>
       <c r="I62" t="n">
         <v>8.681791459262989</v>
@@ -3667,16 +3667,16 @@
         <v>41.54402924555519</v>
       </c>
       <c r="K62" t="n">
-        <v>7.568518691567398</v>
+        <v>7.568518691567563</v>
       </c>
       <c r="L62" t="n">
-        <v>20.76445139767456</v>
+        <v>20.76445139767554</v>
       </c>
       <c r="M62" t="n">
-        <v>0.4728175938483649</v>
+        <v>0.4728175938483186</v>
       </c>
       <c r="N62" t="n">
-        <v>3.992173139006108</v>
+        <v>3.992173139006073</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0003083000000003722</v>
+        <v>0.0002927000000028102</v>
       </c>
     </row>
     <row r="63">
@@ -3704,13 +3704,13 @@
         <v>0.2157477757799077</v>
       </c>
       <c r="F63" t="n">
-        <v>31.25662960901309</v>
+        <v>31.25662960901216</v>
       </c>
       <c r="G63" t="n">
-        <v>173.4074665962364</v>
+        <v>173.4074665962366</v>
       </c>
       <c r="H63" t="n">
-        <v>7.712776836349619</v>
+        <v>7.712776836349208</v>
       </c>
       <c r="I63" t="n">
         <v>7.850039722804902</v>
@@ -3719,16 +3719,16 @@
         <v>32.39652408006119</v>
       </c>
       <c r="K63" t="n">
-        <v>6.89279953854946</v>
+        <v>6.892799538549332</v>
       </c>
       <c r="L63" t="n">
-        <v>19.58748189871404</v>
+        <v>19.58748189871358</v>
       </c>
       <c r="M63" t="n">
-        <v>0.3921453816320964</v>
+        <v>0.392145381632123</v>
       </c>
       <c r="N63" t="n">
-        <v>2.748473774904517</v>
+        <v>2.748473774904377</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.000290499999998417</v>
+        <v>0.0002378000000007319</v>
       </c>
     </row>
     <row r="64">
@@ -3756,13 +3756,13 @@
         <v>0.006162713151847251</v>
       </c>
       <c r="F64" t="n">
-        <v>31.36279970017248</v>
+        <v>31.36279970017166</v>
       </c>
       <c r="G64" t="n">
-        <v>352.8716868938342</v>
+        <v>352.871686893837</v>
       </c>
       <c r="H64" t="n">
-        <v>1.105058445909149</v>
+        <v>1.105058445909755</v>
       </c>
       <c r="I64" t="n">
         <v>2.741606634097171</v>
@@ -3771,16 +3771,16 @@
         <v>48.02196508739905</v>
       </c>
       <c r="K64" t="n">
-        <v>1.922855427530719</v>
+        <v>1.922855427530681</v>
       </c>
       <c r="L64" t="n">
-        <v>30.07919490507965</v>
+        <v>30.07919490507955</v>
       </c>
       <c r="M64" t="n">
-        <v>0.3308217714447541</v>
+        <v>0.3308217714447632</v>
       </c>
       <c r="N64" t="n">
-        <v>3.346035246861415</v>
+        <v>3.346035246861191</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0002916000000006136</v>
+        <v>0.0001888000000036527</v>
       </c>
     </row>
     <row r="65">
@@ -3808,13 +3808,13 @@
         <v>1.069489326759043</v>
       </c>
       <c r="F65" t="n">
-        <v>25.66489315419294</v>
+        <v>25.66489315419198</v>
       </c>
       <c r="G65" t="n">
-        <v>166.1914933774175</v>
+        <v>166.1914933774186</v>
       </c>
       <c r="H65" t="n">
-        <v>7.354164901577186</v>
+        <v>7.354164901576953</v>
       </c>
       <c r="I65" t="n">
         <v>16.10870148266759</v>
@@ -3823,16 +3823,16 @@
         <v>37.27781598912134</v>
       </c>
       <c r="K65" t="n">
-        <v>14.54658918391509</v>
+        <v>14.54658918391488</v>
       </c>
       <c r="L65" t="n">
-        <v>14.95346674713519</v>
+        <v>14.95346674713443</v>
       </c>
       <c r="M65" t="n">
-        <v>0.587475440601974</v>
+        <v>0.5874754406020396</v>
       </c>
       <c r="N65" t="n">
-        <v>3.179898349577705</v>
+        <v>3.17989834957789</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0003187000000011153</v>
+        <v>0.0002186999999977957</v>
       </c>
     </row>
     <row r="66">
@@ -3860,13 +3860,13 @@
         <v>359.4498385303842</v>
       </c>
       <c r="F66" t="n">
-        <v>24.67060434960726</v>
+        <v>24.67060434961011</v>
       </c>
       <c r="G66" t="n">
-        <v>55.53224786840148</v>
+        <v>55.53224786840245</v>
       </c>
       <c r="H66" t="n">
-        <v>6.249398116779735</v>
+        <v>6.24939811678082</v>
       </c>
       <c r="I66" t="n">
         <v>16.16170376099309</v>
@@ -3875,16 +3875,16 @@
         <v>43.46372352112631</v>
       </c>
       <c r="K66" t="n">
-        <v>15.14215799831611</v>
+        <v>15.14215799831647</v>
       </c>
       <c r="L66" t="n">
-        <v>27.24312555447195</v>
+        <v>27.2431255544756</v>
       </c>
       <c r="M66" t="n">
-        <v>0.5791069312376381</v>
+        <v>0.5791069312374972</v>
       </c>
       <c r="N66" t="n">
-        <v>2.101128851630816</v>
+        <v>2.101128851630283</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0002808999999999173</v>
+        <v>0.0002080000000006521</v>
       </c>
     </row>
     <row r="67">
@@ -3912,13 +3912,13 @@
         <v>0.4168324115663374</v>
       </c>
       <c r="F67" t="n">
-        <v>32.10132840198372</v>
+        <v>32.10132840198411</v>
       </c>
       <c r="G67" t="n">
         <v>179.413122020301</v>
       </c>
       <c r="H67" t="n">
-        <v>7.014713823521261</v>
+        <v>7.014713823521666</v>
       </c>
       <c r="I67" t="n">
         <v>5.274021781485452</v>
@@ -3927,16 +3927,16 @@
         <v>40.68913562875419</v>
       </c>
       <c r="K67" t="n">
-        <v>4.046200408892939</v>
+        <v>4.046200408892965</v>
       </c>
       <c r="L67" t="n">
-        <v>21.11954233093113</v>
+        <v>21.11954233093103</v>
       </c>
       <c r="M67" t="n">
-        <v>0.4014876020677043</v>
+        <v>0.4014876020676992</v>
       </c>
       <c r="N67" t="n">
-        <v>7.303234646816768</v>
+        <v>7.303234646817064</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0002880000000011762</v>
+        <v>0.0002965999999986479</v>
       </c>
     </row>
     <row r="68">
@@ -3964,13 +3964,13 @@
         <v>359.2921928179678</v>
       </c>
       <c r="F68" t="n">
-        <v>24.44508101352947</v>
+        <v>24.4450810135296</v>
       </c>
       <c r="G68" t="n">
-        <v>8.725850212354613</v>
+        <v>8.725850212354739</v>
       </c>
       <c r="H68" t="n">
-        <v>8.26295180043831</v>
+        <v>8.262951800438257</v>
       </c>
       <c r="I68" t="n">
         <v>5.062672950318515</v>
@@ -3979,16 +3979,16 @@
         <v>42.43801944024082</v>
       </c>
       <c r="K68" t="n">
-        <v>4.290343746114664</v>
+        <v>4.290343746114677</v>
       </c>
       <c r="L68" t="n">
-        <v>31.71650579686075</v>
+        <v>31.71650579686082</v>
       </c>
       <c r="M68" t="n">
-        <v>0.4412226168657478</v>
+        <v>0.4412226168657453</v>
       </c>
       <c r="N68" t="n">
-        <v>3.07674416070242</v>
+        <v>3.076744160702378</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0003089000000002784</v>
+        <v>0.0002068000000008396</v>
       </c>
     </row>
     <row r="69">
@@ -4016,13 +4016,13 @@
         <v>359.4357389238899</v>
       </c>
       <c r="F69" t="n">
-        <v>25.52748940023165</v>
+        <v>25.5274894002326</v>
       </c>
       <c r="G69" t="n">
-        <v>90.47252960544908</v>
+        <v>90.47252960544873</v>
       </c>
       <c r="H69" t="n">
-        <v>8.000449500252637</v>
+        <v>8.000449500253071</v>
       </c>
       <c r="I69" t="n">
         <v>25.81153388271712</v>
@@ -4031,16 +4031,16 @@
         <v>38.98056188996542</v>
       </c>
       <c r="K69" t="n">
-        <v>24.73792903507551</v>
+        <v>24.73792903507562</v>
       </c>
       <c r="L69" t="n">
-        <v>25.13755136533158</v>
+        <v>25.1375513653327</v>
       </c>
       <c r="M69" t="n">
-        <v>0.5148258730975984</v>
+        <v>0.5148258730975557</v>
       </c>
       <c r="N69" t="n">
-        <v>2.05166183541152</v>
+        <v>2.051661835411371</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0002828000000008046</v>
+        <v>0.0001980999999986466</v>
       </c>
     </row>
     <row r="70">
@@ -4068,13 +4068,13 @@
         <v>0.4722381821858267</v>
       </c>
       <c r="F70" t="n">
-        <v>31.28967938810057</v>
+        <v>31.28967938810059</v>
       </c>
       <c r="G70" t="n">
-        <v>179.3461084658862</v>
+        <v>179.3461084658861</v>
       </c>
       <c r="H70" t="n">
-        <v>7.98458949471754</v>
+        <v>7.984589494717476</v>
       </c>
       <c r="I70" t="n">
         <v>6.014679871228592</v>
@@ -4083,16 +4083,16 @@
         <v>40.50448663765381</v>
       </c>
       <c r="K70" t="n">
-        <v>4.604878826451518</v>
+        <v>4.604878826451531</v>
       </c>
       <c r="L70" t="n">
-        <v>19.15319634524391</v>
+        <v>19.15319634524401</v>
       </c>
       <c r="M70" t="n">
-        <v>0.4450679991573219</v>
+        <v>0.4450679991573194</v>
       </c>
       <c r="N70" t="n">
-        <v>7.717825367808153</v>
+        <v>7.717825367808093</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0002805999999999642</v>
+        <v>0.0001923999999959847</v>
       </c>
     </row>
     <row r="71">
@@ -4120,13 +4120,13 @@
         <v>359.5422464507259</v>
       </c>
       <c r="F71" t="n">
-        <v>24.35006125549695</v>
+        <v>24.35006125549581</v>
       </c>
       <c r="G71" t="n">
-        <v>44.59092231048444</v>
+        <v>44.59092231048513</v>
       </c>
       <c r="H71" t="n">
-        <v>8.004475442231399</v>
+        <v>8.004475442230607</v>
       </c>
       <c r="I71" t="n">
         <v>16.08018820099398</v>
@@ -4135,16 +4135,16 @@
         <v>48.38554590561366</v>
       </c>
       <c r="K71" t="n">
-        <v>15.11796907062937</v>
+        <v>15.11796907062925</v>
       </c>
       <c r="L71" t="n">
-        <v>29.59761129395282</v>
+        <v>29.59761129395084</v>
       </c>
       <c r="M71" t="n">
-        <v>0.4800393271800872</v>
+        <v>0.4800393271801421</v>
       </c>
       <c r="N71" t="n">
-        <v>2.031472138733225</v>
+        <v>2.03147213873346</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0002922000000005198</v>
+        <v>0.0001876999999979034</v>
       </c>
     </row>
     <row r="72">
@@ -4172,13 +4172,13 @@
         <v>359.574501295849</v>
       </c>
       <c r="F72" t="n">
-        <v>30.25304431965126</v>
+        <v>30.25304431964968</v>
       </c>
       <c r="G72" t="n">
-        <v>165.1801333246063</v>
+        <v>165.1801333246085</v>
       </c>
       <c r="H72" t="n">
-        <v>8.648298554739812</v>
+        <v>8.648298554739736</v>
       </c>
       <c r="I72" t="n">
         <v>12.56035812480068</v>
@@ -4187,16 +4187,16 @@
         <v>22.16891449794234</v>
       </c>
       <c r="K72" t="n">
-        <v>11.55898627045576</v>
+        <v>11.55898627045553</v>
       </c>
       <c r="L72" t="n">
-        <v>17.96751497692595</v>
+        <v>17.96751497692432</v>
       </c>
       <c r="M72" t="n">
-        <v>0.4084831149705851</v>
+        <v>0.4084831149706445</v>
       </c>
       <c r="N72" t="n">
-        <v>1.505155657074739</v>
+        <v>1.505155657074879</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0003185999999999467</v>
+        <v>0.0003035000000011223</v>
       </c>
     </row>
     <row r="73">
@@ -4224,13 +4224,13 @@
         <v>0.2153015748648967</v>
       </c>
       <c r="F73" t="n">
-        <v>29.64671867808883</v>
+        <v>29.64671867808937</v>
       </c>
       <c r="G73" t="n">
-        <v>135.2449299347176</v>
+        <v>135.2449299347108</v>
       </c>
       <c r="H73" t="n">
-        <v>2.119958007839508</v>
+        <v>2.119958007839414</v>
       </c>
       <c r="I73" t="n">
         <v>7.859910572602633</v>
@@ -4239,16 +4239,16 @@
         <v>45.46351225095051</v>
       </c>
       <c r="K73" t="n">
-        <v>6.946116158734511</v>
+        <v>6.946116158734587</v>
       </c>
       <c r="L73" t="n">
-        <v>25.41013168303186</v>
+        <v>25.4101316830327</v>
       </c>
       <c r="M73" t="n">
-        <v>0.3726592584723751</v>
+        <v>0.372659258472355</v>
       </c>
       <c r="N73" t="n">
-        <v>5.315851771281658</v>
+        <v>5.315851771281467</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0002990999999994415</v>
+        <v>0.0002004999999982715</v>
       </c>
     </row>
     <row r="74">
@@ -4276,13 +4276,13 @@
         <v>359.8407272504671</v>
       </c>
       <c r="F74" t="n">
-        <v>26.8709641084917</v>
+        <v>26.87096410849193</v>
       </c>
       <c r="G74" t="n">
-        <v>15.72104116525693</v>
+        <v>15.72104116525785</v>
       </c>
       <c r="H74" t="n">
-        <v>5.886605855682463</v>
+        <v>5.886605855682075</v>
       </c>
       <c r="I74" t="n">
         <v>6.377065963047959</v>
@@ -4291,16 +4291,16 @@
         <v>50.40064281793606</v>
       </c>
       <c r="K74" t="n">
-        <v>5.53578989731375</v>
+        <v>5.535789897313762</v>
       </c>
       <c r="L74" t="n">
-        <v>31.19969079913992</v>
+        <v>31.19969079913968</v>
       </c>
       <c r="M74" t="n">
-        <v>0.405933860120706</v>
+        <v>0.4059338601207073</v>
       </c>
       <c r="N74" t="n">
-        <v>2.120003782504525</v>
+        <v>2.120003782504597</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0003063999999994849</v>
+        <v>0.0001907999999986032</v>
       </c>
     </row>
     <row r="75">
@@ -4328,13 +4328,13 @@
         <v>359.711593474345</v>
       </c>
       <c r="F75" t="n">
-        <v>29.40195036347961</v>
+        <v>29.40195036348402</v>
       </c>
       <c r="G75" t="n">
-        <v>114.3379856441521</v>
+        <v>114.3379856441444</v>
       </c>
       <c r="H75" t="n">
-        <v>6.373237478148996</v>
+        <v>6.373237478150253</v>
       </c>
       <c r="I75" t="n">
         <v>19.35755665061183</v>
@@ -4343,16 +4343,16 @@
         <v>34.40684012736449</v>
       </c>
       <c r="K75" t="n">
-        <v>18.68089405701445</v>
+        <v>18.68089405701483</v>
       </c>
       <c r="L75" t="n">
-        <v>24.94769655050639</v>
+        <v>24.94769655051144</v>
       </c>
       <c r="M75" t="n">
-        <v>0.3612104591399483</v>
+        <v>0.3612104591398209</v>
       </c>
       <c r="N75" t="n">
-        <v>1.47737620628707</v>
+        <v>1.477376206286592</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003203999999996654</v>
+        <v>0.000190199999998697</v>
       </c>
     </row>
     <row r="76">
@@ -4380,13 +4380,13 @@
         <v>359.6958272530962</v>
       </c>
       <c r="F76" t="n">
-        <v>26.46377036223026</v>
+        <v>26.4637703622309</v>
       </c>
       <c r="G76" t="n">
-        <v>33.13986434412266</v>
+        <v>33.13986434412356</v>
       </c>
       <c r="H76" t="n">
-        <v>7.427593029060771</v>
+        <v>7.427593029060839</v>
       </c>
       <c r="I76" t="n">
         <v>11.46063555869591</v>
@@ -4395,16 +4395,16 @@
         <v>50.37958060079622</v>
       </c>
       <c r="K76" t="n">
-        <v>10.67610577866967</v>
+        <v>10.67610577866974</v>
       </c>
       <c r="L76" t="n">
-        <v>31.86185116621497</v>
+        <v>31.86185116621561</v>
       </c>
       <c r="M76" t="n">
-        <v>0.3779500304276651</v>
+        <v>0.3779500304276504</v>
       </c>
       <c r="N76" t="n">
-        <v>1.894412181943583</v>
+        <v>1.894412181943504</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0002960999999999103</v>
+        <v>0.0001880999999954724</v>
       </c>
     </row>
     <row r="77">
@@ -4432,13 +4432,13 @@
         <v>0.3547510669880397</v>
       </c>
       <c r="F77" t="n">
-        <v>30.70750961582401</v>
+        <v>30.70750961582358</v>
       </c>
       <c r="G77" t="n">
-        <v>170.4259144817448</v>
+        <v>170.4259144817466</v>
       </c>
       <c r="H77" t="n">
-        <v>6.836299795805693</v>
+        <v>6.83629979580613</v>
       </c>
       <c r="I77" t="n">
         <v>8.76635558354894</v>
@@ -4447,16 +4447,16 @@
         <v>36.83621895458627</v>
       </c>
       <c r="K77" t="n">
-        <v>7.758344850580324</v>
+        <v>7.758344850580247</v>
       </c>
       <c r="L77" t="n">
-        <v>20.18604122916302</v>
+        <v>20.18604122916202</v>
       </c>
       <c r="M77" t="n">
-        <v>0.4016304896139685</v>
+        <v>0.4016304896139947</v>
       </c>
       <c r="N77" t="n">
-        <v>4.713326706750959</v>
+        <v>4.713326706751356</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0003031000000000006</v>
+        <v>0.0002302999999983513</v>
       </c>
     </row>
     <row r="78">
@@ -4484,13 +4484,13 @@
         <v>359.5298493446405</v>
       </c>
       <c r="F78" t="n">
-        <v>25.35250519399383</v>
+        <v>25.3525051939918</v>
       </c>
       <c r="G78" t="n">
-        <v>49.58699406353296</v>
+        <v>49.58699406353266</v>
       </c>
       <c r="H78" t="n">
-        <v>8.088157730203129</v>
+        <v>8.088157730202155</v>
       </c>
       <c r="I78" t="n">
         <v>16.84050940313982</v>
@@ -4499,16 +4499,16 @@
         <v>48.06403202229916</v>
       </c>
       <c r="K78" t="n">
-        <v>16.05256449290812</v>
+        <v>16.05256449290792</v>
       </c>
       <c r="L78" t="n">
-        <v>30.2052318769725</v>
+        <v>30.20523187696962</v>
       </c>
       <c r="M78" t="n">
-        <v>0.4439515525401058</v>
+        <v>0.4439515525401839</v>
       </c>
       <c r="N78" t="n">
-        <v>1.899027534966372</v>
+        <v>1.899027534966726</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003185000000023308</v>
+        <v>0.0001942000000028088</v>
       </c>
     </row>
     <row r="79">
@@ -4536,13 +4536,13 @@
         <v>359.8877775739622</v>
       </c>
       <c r="F79" t="n">
-        <v>31.10624069513623</v>
+        <v>31.10624069513526</v>
       </c>
       <c r="G79" t="n">
-        <v>169.5551813049926</v>
+        <v>169.5551813049931</v>
       </c>
       <c r="H79" t="n">
-        <v>8.512065174294071</v>
+        <v>8.512065174293781</v>
       </c>
       <c r="I79" t="n">
         <v>10.0027312132912</v>
@@ -4551,16 +4551,16 @@
         <v>25.33373033689035</v>
       </c>
       <c r="K79" t="n">
-        <v>9.121047068257207</v>
+        <v>9.121047068257067</v>
       </c>
       <c r="L79" t="n">
-        <v>18.6808013727758</v>
+        <v>18.68080137277512</v>
       </c>
       <c r="M79" t="n">
-        <v>0.3531329954361694</v>
+        <v>0.3531329954361979</v>
       </c>
       <c r="N79" t="n">
-        <v>1.273374536678144</v>
+        <v>1.273374536678304</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0002962000000010789</v>
+        <v>0.0002048999999999523</v>
       </c>
     </row>
     <row r="80">
@@ -4588,13 +4588,13 @@
         <v>359.9389769313877</v>
       </c>
       <c r="F80" t="n">
-        <v>29.51598567119835</v>
+        <v>29.51598567119799</v>
       </c>
       <c r="G80" t="n">
-        <v>6.510592263778859</v>
+        <v>6.510592263777905</v>
       </c>
       <c r="H80" t="n">
-        <v>2.070721454184274</v>
+        <v>2.07072145418435</v>
       </c>
       <c r="I80" t="n">
         <v>3.606923411926436</v>
@@ -4603,16 +4603,16 @@
         <v>50.73672563365681</v>
       </c>
       <c r="K80" t="n">
-        <v>2.76966181726836</v>
+        <v>2.769661817268322</v>
       </c>
       <c r="L80" t="n">
-        <v>29.40279355911323</v>
+        <v>29.40279355911296</v>
       </c>
       <c r="M80" t="n">
-        <v>0.3943015813021515</v>
+        <v>0.3943015813021603</v>
       </c>
       <c r="N80" t="n">
-        <v>3.000779711891729</v>
+        <v>3.000779711891751</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0003008999999991602</v>
+        <v>0.0001881000000025779</v>
       </c>
     </row>
     <row r="81">
@@ -4640,13 +4640,13 @@
         <v>1.658179410385036</v>
       </c>
       <c r="F81" t="n">
-        <v>21.72636978463581</v>
+        <v>21.72636978463645</v>
       </c>
       <c r="G81" t="n">
-        <v>174.1809688522384</v>
+        <v>174.1809688522366</v>
       </c>
       <c r="H81" t="n">
-        <v>7.240780822478913</v>
+        <v>7.240780822478741</v>
       </c>
       <c r="I81" t="n">
         <v>17.1232117211352</v>
@@ -4655,16 +4655,16 @@
         <v>39.09485972400436</v>
       </c>
       <c r="K81" t="n">
-        <v>14.37557833727782</v>
+        <v>14.37557833727807</v>
       </c>
       <c r="L81" t="n">
-        <v>10.79473894902598</v>
+        <v>10.79473894902689</v>
       </c>
       <c r="M81" t="n">
-        <v>1.178154822208479</v>
+        <v>1.178154822208329</v>
       </c>
       <c r="N81" t="n">
-        <v>4.394126279445972</v>
+        <v>4.394126279445873</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0002957999999999572</v>
+        <v>0.0002113000000036891</v>
       </c>
     </row>
     <row r="82">
@@ -4692,13 +4692,13 @@
         <v>359.0500735319259</v>
       </c>
       <c r="F82" t="n">
-        <v>24.86864901004402</v>
+        <v>24.86864901004077</v>
       </c>
       <c r="G82" t="n">
-        <v>79.51839252531796</v>
+        <v>79.51839252531873</v>
       </c>
       <c r="H82" t="n">
-        <v>7.144266184162277</v>
+        <v>7.144266184160858</v>
       </c>
       <c r="I82" t="n">
         <v>22.11552919085654</v>
@@ -4707,16 +4707,16 @@
         <v>39.33727404337365</v>
       </c>
       <c r="K82" t="n">
-        <v>21.10271970779215</v>
+        <v>21.10271970779177</v>
       </c>
       <c r="L82" t="n">
-        <v>25.51994802331228</v>
+        <v>25.51994802330828</v>
       </c>
       <c r="M82" t="n">
-        <v>0.6202490066790572</v>
+        <v>0.6202490066792334</v>
       </c>
       <c r="N82" t="n">
-        <v>2.13157988336903</v>
+        <v>2.131579883369584</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0003162000000003218</v>
+        <v>0.0004096999999987361</v>
       </c>
     </row>
     <row r="83">
@@ -4744,13 +4744,13 @@
         <v>0.67995017110934</v>
       </c>
       <c r="F83" t="n">
-        <v>28.50667601124681</v>
+        <v>28.50667601124481</v>
       </c>
       <c r="G83" t="n">
-        <v>156.7053625489655</v>
+        <v>156.70536254897</v>
       </c>
       <c r="H83" t="n">
-        <v>5.16662822440209</v>
+        <v>5.166628224402004</v>
       </c>
       <c r="I83" t="n">
         <v>12.10179104400886</v>
@@ -4759,16 +4759,16 @@
         <v>42.05119175911687</v>
       </c>
       <c r="K83" t="n">
-        <v>11.09650238276555</v>
+        <v>11.09650238276525</v>
       </c>
       <c r="L83" t="n">
-        <v>20.5784781943575</v>
+        <v>20.57847819435533</v>
       </c>
       <c r="M83" t="n">
-        <v>0.4393470337043521</v>
+        <v>0.4393470337044369</v>
       </c>
       <c r="N83" t="n">
-        <v>4.098871416385811</v>
+        <v>4.098871416386119</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003120000000009782</v>
+        <v>0.0001972999999964031</v>
       </c>
     </row>
     <row r="84">
@@ -4796,13 +4796,13 @@
         <v>359.579674798622</v>
       </c>
       <c r="F84" t="n">
-        <v>24.96127846546009</v>
+        <v>24.96127846546143</v>
       </c>
       <c r="G84" t="n">
-        <v>41.03830172747605</v>
+        <v>41.03830172747597</v>
       </c>
       <c r="H84" t="n">
-        <v>6.738179756563372</v>
+        <v>6.738179756564046</v>
       </c>
       <c r="I84" t="n">
         <v>13.43287767644303</v>
@@ -4811,16 +4811,16 @@
         <v>46.97805561868334</v>
       </c>
       <c r="K84" t="n">
-        <v>12.48175240228465</v>
+        <v>12.48175240228481</v>
       </c>
       <c r="L84" t="n">
-        <v>29.13166956383982</v>
+        <v>29.13166956384185</v>
       </c>
       <c r="M84" t="n">
-        <v>0.4943113086041599</v>
+        <v>0.4943113086040987</v>
       </c>
       <c r="N84" t="n">
-        <v>2.004831755142226</v>
+        <v>2.004831755141955</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0002960999999999103</v>
+        <v>0.000187400000001503</v>
       </c>
     </row>
     <row r="85">
@@ -4848,13 +4848,13 @@
         <v>359.5753435569815</v>
       </c>
       <c r="F85" t="n">
-        <v>25.33137450374698</v>
+        <v>25.33137450374645</v>
       </c>
       <c r="G85" t="n">
-        <v>39.0117630960303</v>
+        <v>39.01176309603178</v>
       </c>
       <c r="H85" t="n">
-        <v>7.13184746928866</v>
+        <v>7.131847469288037</v>
       </c>
       <c r="I85" t="n">
         <v>13.12799389676822</v>
@@ -4863,16 +4863,16 @@
         <v>47.93179806456282</v>
       </c>
       <c r="K85" t="n">
-        <v>12.23945813410906</v>
+        <v>12.23945813410901</v>
       </c>
       <c r="L85" t="n">
-        <v>30.04716227392454</v>
+        <v>30.04716227392326</v>
       </c>
       <c r="M85" t="n">
-        <v>0.4428107672836349</v>
+        <v>0.4428107672836655</v>
       </c>
       <c r="N85" t="n">
-        <v>1.934252864191393</v>
+        <v>1.934252864191554</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0003217999999982624</v>
+        <v>0.0001871999999991658</v>
       </c>
     </row>
     <row r="86">
@@ -4900,13 +4900,13 @@
         <v>0.06580610098779141</v>
       </c>
       <c r="F86" t="n">
-        <v>28.48927673196693</v>
+        <v>28.48927673196709</v>
       </c>
       <c r="G86" t="n">
         <v>354.868337184117</v>
       </c>
       <c r="H86" t="n">
-        <v>2.128215071206111</v>
+        <v>2.128215071206037</v>
       </c>
       <c r="I86" t="n">
         <v>3.043806361309816</v>
@@ -4915,16 +4915,16 @@
         <v>46.28716097005798</v>
       </c>
       <c r="K86" t="n">
-        <v>1.964594672175121</v>
+        <v>1.964594672175134</v>
       </c>
       <c r="L86" t="n">
-        <v>28.43323014268864</v>
+        <v>28.43323014268872</v>
       </c>
       <c r="M86" t="n">
-        <v>0.4368135755353767</v>
+        <v>0.4368135755353737</v>
       </c>
       <c r="N86" t="n">
-        <v>3.033300679822776</v>
+        <v>3.033300679822799</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0002947999999989293</v>
+        <v>0.0001873999999943976</v>
       </c>
     </row>
     <row r="87">
@@ -4952,13 +4952,13 @@
         <v>359.9115746394606</v>
       </c>
       <c r="F87" t="n">
-        <v>28.06934621576183</v>
+        <v>28.06934621575558</v>
       </c>
       <c r="G87" t="n">
-        <v>118.1257425957975</v>
+        <v>118.1257425958102</v>
       </c>
       <c r="H87" t="n">
-        <v>5.709025421722801</v>
+        <v>5.709025421721171</v>
       </c>
       <c r="I87" t="n">
         <v>18.76061115182669</v>
@@ -4967,16 +4967,16 @@
         <v>35.21970397644842</v>
       </c>
       <c r="K87" t="n">
-        <v>17.87902995956866</v>
+        <v>17.879029959568</v>
       </c>
       <c r="L87" t="n">
-        <v>23.35111204688715</v>
+        <v>23.35111204688006</v>
       </c>
       <c r="M87" t="n">
-        <v>0.3935243268944538</v>
+        <v>0.3935243268946635</v>
       </c>
       <c r="N87" t="n">
-        <v>1.876369285077807</v>
+        <v>1.876369285079071</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0002846000000005233</v>
+        <v>0.0002387999999982071</v>
       </c>
     </row>
     <row r="88">
@@ -5004,13 +5004,13 @@
         <v>0.2981428594836462</v>
       </c>
       <c r="F88" t="n">
-        <v>30.32428117733292</v>
+        <v>30.32428117733185</v>
       </c>
       <c r="G88" t="n">
-        <v>169.4457737278805</v>
+        <v>169.4457737278834</v>
       </c>
       <c r="H88" t="n">
-        <v>4.341497808211791</v>
+        <v>4.34149780821204</v>
       </c>
       <c r="I88" t="n">
         <v>6.791947165725001</v>
@@ -5019,16 +5019,16 @@
         <v>42.97845363301155</v>
       </c>
       <c r="K88" t="n">
-        <v>5.770668661534552</v>
+        <v>5.770668661534387</v>
       </c>
       <c r="L88" t="n">
-        <v>22.70089119588756</v>
+        <v>22.70089119588614</v>
       </c>
       <c r="M88" t="n">
-        <v>0.39763414837989</v>
+        <v>0.3976341483799321</v>
       </c>
       <c r="N88" t="n">
-        <v>4.887316194728286</v>
+        <v>4.887316194728337</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0003013000000002819</v>
+        <v>0.0001993000000055645</v>
       </c>
     </row>
     <row r="89">
@@ -5056,13 +5056,13 @@
         <v>359.8138122395735</v>
       </c>
       <c r="F89" t="n">
-        <v>27.57720264065357</v>
+        <v>27.57720264066325</v>
       </c>
       <c r="G89" t="n">
-        <v>120.6126808163531</v>
+        <v>120.6126808163474</v>
       </c>
       <c r="H89" t="n">
-        <v>9.164978198605118</v>
+        <v>9.16497819860929</v>
       </c>
       <c r="I89" t="n">
         <v>29.4243494329187</v>
@@ -5071,16 +5071,16 @@
         <v>33.52902134866883</v>
       </c>
       <c r="K89" t="n">
-        <v>28.57834230876391</v>
+        <v>28.5783423087649</v>
       </c>
       <c r="L89" t="n">
-        <v>22.04619927763724</v>
+        <v>22.04619927764665</v>
       </c>
       <c r="M89" t="n">
-        <v>0.4085315050271888</v>
+        <v>0.4085315050268667</v>
       </c>
       <c r="N89" t="n">
-        <v>1.759750671112605</v>
+        <v>1.759750671111024</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0002934999999979482</v>
+        <v>0.0001888999999977159</v>
       </c>
     </row>
     <row r="90">
@@ -5108,13 +5108,13 @@
         <v>359.9465578479241</v>
       </c>
       <c r="F90" t="n">
-        <v>28.95362752341347</v>
+        <v>28.95362752340871</v>
       </c>
       <c r="G90" t="n">
-        <v>126.356895433576</v>
+        <v>126.3568954335789</v>
       </c>
       <c r="H90" t="n">
-        <v>6.102457000527366</v>
+        <v>6.102457000525981</v>
       </c>
       <c r="I90" t="n">
         <v>18.57224489984314</v>
@@ -5123,16 +5123,16 @@
         <v>34.2946546952799</v>
       </c>
       <c r="K90" t="n">
-        <v>17.74976430884108</v>
+        <v>17.7497643088405</v>
       </c>
       <c r="L90" t="n">
-        <v>23.09552723793159</v>
+        <v>23.09552723792724</v>
       </c>
       <c r="M90" t="n">
-        <v>0.3840695545243481</v>
+        <v>0.3840695545244901</v>
       </c>
       <c r="N90" t="n">
-        <v>1.81570288669422</v>
+        <v>1.815702886695027</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.000285000000001645</v>
+        <v>0.0001886000000013155</v>
       </c>
     </row>
     <row r="91">
@@ -5160,13 +5160,13 @@
         <v>0.8468650132735551</v>
       </c>
       <c r="F91" t="n">
-        <v>27.87551667221444</v>
+        <v>27.8755166722127</v>
       </c>
       <c r="G91" t="n">
-        <v>167.9621533178687</v>
+        <v>167.9621533178722</v>
       </c>
       <c r="H91" t="n">
-        <v>7.210323251434363</v>
+        <v>7.210323251434507</v>
       </c>
       <c r="I91" t="n">
         <v>12.74316145486036</v>
@@ -5175,16 +5175,16 @@
         <v>38.33487342784704</v>
       </c>
       <c r="K91" t="n">
-        <v>11.40234865202966</v>
+        <v>11.40234865202935</v>
       </c>
       <c r="L91" t="n">
-        <v>17.13212246904125</v>
+        <v>17.13212246903917</v>
       </c>
       <c r="M91" t="n">
-        <v>0.4877104602907733</v>
+        <v>0.487710460290872</v>
       </c>
       <c r="N91" t="n">
-        <v>3.676500397199342</v>
+        <v>3.676500397199656</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0002822999999985143</v>
+        <v>0.0001887999999965473</v>
       </c>
     </row>
     <row r="92">
@@ -5212,13 +5212,13 @@
         <v>0.1122433340996691</v>
       </c>
       <c r="F92" t="n">
-        <v>29.34717736565449</v>
+        <v>29.3471773656547</v>
       </c>
       <c r="G92" t="n">
-        <v>164.7192481755248</v>
+        <v>164.7192481755272</v>
       </c>
       <c r="H92" t="n">
-        <v>1.763953071914428</v>
+        <v>1.76395307191469</v>
       </c>
       <c r="I92" t="n">
         <v>5.21318424796729</v>
@@ -5227,16 +5227,16 @@
         <v>42.76553142273538</v>
       </c>
       <c r="K92" t="n">
-        <v>4.137153675626605</v>
+        <v>4.137153675626617</v>
       </c>
       <c r="L92" t="n">
-        <v>24.75335224993729</v>
+        <v>24.75335224993718</v>
       </c>
       <c r="M92" t="n">
-        <v>0.4049952592593393</v>
+        <v>0.4049952592593383</v>
       </c>
       <c r="N92" t="n">
-        <v>5.99881331803658</v>
+        <v>5.998813318036505</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0003686999999992224</v>
+        <v>0.0002436000000045624</v>
       </c>
     </row>
     <row r="93">
@@ -5264,13 +5264,13 @@
         <v>0.3030605088673829</v>
       </c>
       <c r="F93" t="n">
-        <v>29.4792417589772</v>
+        <v>29.47924175897753</v>
       </c>
       <c r="G93" t="n">
-        <v>152.0053978776839</v>
+        <v>152.0053978776806</v>
       </c>
       <c r="H93" t="n">
-        <v>2.788475521511911</v>
+        <v>2.788475521511767</v>
       </c>
       <c r="I93" t="n">
         <v>7.863442946019621</v>
@@ -5279,16 +5279,16 @@
         <v>44.53239056119353</v>
       </c>
       <c r="K93" t="n">
-        <v>6.909140169251881</v>
+        <v>6.909140169251931</v>
       </c>
       <c r="L93" t="n">
-        <v>24.0827103003131</v>
+        <v>24.08271030031368</v>
       </c>
       <c r="M93" t="n">
-        <v>0.3651012562866651</v>
+        <v>0.3651012562866511</v>
       </c>
       <c r="N93" t="n">
-        <v>5.396240991914903</v>
+        <v>5.396240991914835</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003007000000003757</v>
+        <v>0.0002010000000041146</v>
       </c>
     </row>
     <row r="94">
@@ -5316,13 +5316,13 @@
         <v>359.8848503791089</v>
       </c>
       <c r="F94" t="n">
-        <v>31.36455072018599</v>
+        <v>31.36455072018265</v>
       </c>
       <c r="G94" t="n">
-        <v>164.2372983316714</v>
+        <v>164.2372983316745</v>
       </c>
       <c r="H94" t="n">
-        <v>10.18353551834839</v>
+        <v>10.18353551834773</v>
       </c>
       <c r="I94" t="n">
         <v>15.35104641020007</v>
@@ -5331,16 +5331,16 @@
         <v>24.24394169017284</v>
       </c>
       <c r="K94" t="n">
-        <v>14.60695644562012</v>
+        <v>14.60695644561969</v>
       </c>
       <c r="L94" t="n">
-        <v>17.55482115386722</v>
+        <v>17.55482115386433</v>
       </c>
       <c r="M94" t="n">
-        <v>0.3123034261241719</v>
+        <v>0.3123034261242619</v>
       </c>
       <c r="N94" t="n">
-        <v>1.222583825747124</v>
+        <v>1.222583825747641</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0003010000000003288</v>
+        <v>0.0001934000000005653</v>
       </c>
     </row>
     <row r="95">
@@ -5368,13 +5368,13 @@
         <v>359.1849009598281</v>
       </c>
       <c r="F95" t="n">
-        <v>26.81490569442581</v>
+        <v>26.8149056944263</v>
       </c>
       <c r="G95" t="n">
-        <v>93.49094353068453</v>
+        <v>93.49094353068092</v>
       </c>
       <c r="H95" t="n">
-        <v>7.037293669227906</v>
+        <v>7.037293669228207</v>
       </c>
       <c r="I95" t="n">
         <v>22.21315077475493</v>
@@ -5383,16 +5383,16 @@
         <v>35.75139630592476</v>
       </c>
       <c r="K95" t="n">
-        <v>21.26848586087298</v>
+        <v>21.26848586087296</v>
       </c>
       <c r="L95" t="n">
-        <v>25.41244125821076</v>
+        <v>25.41244125821183</v>
       </c>
       <c r="M95" t="n">
-        <v>0.4878430127395729</v>
+        <v>0.4878430127395447</v>
       </c>
       <c r="N95" t="n">
-        <v>1.993951167638355</v>
+        <v>1.993951167638333</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0003160000000015373</v>
+        <v>0.0001898999999951911</v>
       </c>
     </row>
     <row r="96">
@@ -5420,13 +5420,13 @@
         <v>359.6282733922433</v>
       </c>
       <c r="F96" t="n">
-        <v>28.49528516608641</v>
+        <v>28.49528516608219</v>
       </c>
       <c r="G96" t="n">
-        <v>126.2749941215791</v>
+        <v>126.2749941215849</v>
       </c>
       <c r="H96" t="n">
-        <v>6.532480804090647</v>
+        <v>6.532480804089476</v>
       </c>
       <c r="I96" t="n">
         <v>19.90993072089658</v>
@@ -5435,16 +5435,16 @@
         <v>31.41112353494288</v>
       </c>
       <c r="K96" t="n">
-        <v>18.97983053083983</v>
+        <v>18.97983053083937</v>
       </c>
       <c r="L96" t="n">
-        <v>22.4614625227353</v>
+        <v>22.46146252273097</v>
       </c>
       <c r="M96" t="n">
-        <v>0.4041773691758636</v>
+        <v>0.4041773691760034</v>
       </c>
       <c r="N96" t="n">
-        <v>1.70014240674488</v>
+        <v>1.700142406745362</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0002794000000001517</v>
+        <v>0.0001902999999998656</v>
       </c>
     </row>
     <row r="97">
@@ -5472,13 +5472,13 @@
         <v>0.3321444497762412</v>
       </c>
       <c r="F97" t="n">
-        <v>30.50406058713879</v>
+        <v>30.50406058713894</v>
       </c>
       <c r="G97" t="n">
-        <v>165.3609369872873</v>
+        <v>165.3609369872844</v>
       </c>
       <c r="H97" t="n">
-        <v>3.94079693915041</v>
+        <v>3.940796939149954</v>
       </c>
       <c r="I97" t="n">
         <v>7.230991953515353</v>
@@ -5487,16 +5487,16 @@
         <v>42.49750700264286</v>
       </c>
       <c r="K97" t="n">
-        <v>6.224203872651649</v>
+        <v>6.224203872651687</v>
       </c>
       <c r="L97" t="n">
-        <v>23.44997661235962</v>
+        <v>23.44997661236037</v>
       </c>
       <c r="M97" t="n">
-        <v>0.3714234393282334</v>
+        <v>0.3714234393282194</v>
       </c>
       <c r="N97" t="n">
-        <v>4.740116028601032</v>
+        <v>4.740116028601132</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0002829000000019732</v>
+        <v>0.000247699999995632</v>
       </c>
     </row>
     <row r="98">
@@ -5524,13 +5524,13 @@
         <v>359.965076112617</v>
       </c>
       <c r="F98" t="n">
-        <v>26.07138774109411</v>
+        <v>26.07138774109282</v>
       </c>
       <c r="G98" t="n">
-        <v>40.66801043599071</v>
+        <v>40.66801043599046</v>
       </c>
       <c r="H98" t="n">
-        <v>6.622540057615868</v>
+        <v>6.622540057615316</v>
       </c>
       <c r="I98" t="n">
         <v>12.95227042657602</v>
@@ -5539,16 +5539,16 @@
         <v>51.74105893626461</v>
       </c>
       <c r="K98" t="n">
-        <v>12.1239313552659</v>
+        <v>12.12393135526576</v>
       </c>
       <c r="L98" t="n">
-        <v>30.15544197543397</v>
+        <v>30.15544197543214</v>
       </c>
       <c r="M98" t="n">
-        <v>0.3948215371788663</v>
+        <v>0.39482153717891</v>
       </c>
       <c r="N98" t="n">
-        <v>2.26309968459293</v>
+        <v>2.263099684593119</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0003446999999994205</v>
+        <v>0.0002046000000035519</v>
       </c>
     </row>
     <row r="99">
@@ -5576,13 +5576,13 @@
         <v>0.875593875646003</v>
       </c>
       <c r="F99" t="n">
-        <v>26.13784550073613</v>
+        <v>26.13784550073391</v>
       </c>
       <c r="G99" t="n">
-        <v>168.690731115193</v>
+        <v>168.6907311151944</v>
       </c>
       <c r="H99" t="n">
-        <v>11.29695287004711</v>
+        <v>11.29695287004611</v>
       </c>
       <c r="I99" t="n">
         <v>23.90850916660207</v>
@@ -5591,16 +5591,16 @@
         <v>24.13895389620888</v>
       </c>
       <c r="K99" t="n">
-        <v>22.46592881239513</v>
+        <v>22.46592881239455</v>
       </c>
       <c r="L99" t="n">
-        <v>11.0650741797793</v>
+        <v>11.06507417977806</v>
       </c>
       <c r="M99" t="n">
-        <v>0.4745934458819974</v>
+        <v>0.4745934458821343</v>
       </c>
       <c r="N99" t="n">
-        <v>2.285595224773681</v>
+        <v>2.285595224774112</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0002866000000025792</v>
+        <v>0.0001895999999987907</v>
       </c>
     </row>
     <row r="100">
@@ -5628,13 +5628,13 @@
         <v>359.7631414593671</v>
       </c>
       <c r="F100" t="n">
-        <v>27.90427951754657</v>
+        <v>27.90427951755208</v>
       </c>
       <c r="G100" t="n">
-        <v>136.0847765726686</v>
+        <v>136.084776572664</v>
       </c>
       <c r="H100" t="n">
-        <v>6.305593428416019</v>
+        <v>6.305593428417605</v>
       </c>
       <c r="I100" t="n">
         <v>18.60137800648538</v>
@@ -5643,16 +5643,16 @@
         <v>31.16710803662699</v>
       </c>
       <c r="K100" t="n">
-        <v>17.62805937611627</v>
+        <v>17.62805937611702</v>
       </c>
       <c r="L100" t="n">
-        <v>20.81425599218132</v>
+        <v>20.8142559921862</v>
       </c>
       <c r="M100" t="n">
-        <v>0.4345599728946493</v>
+        <v>0.4345599728944515</v>
       </c>
       <c r="N100" t="n">
-        <v>1.796325515738749</v>
+        <v>1.796325515737783</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0002768000000017423</v>
+        <v>0.0001925999999983219</v>
       </c>
     </row>
     <row r="101">
@@ -5680,13 +5680,13 @@
         <v>0.07117942135097972</v>
       </c>
       <c r="F101" t="n">
-        <v>28.98356250865468</v>
+        <v>28.98356250865568</v>
       </c>
       <c r="G101" t="n">
-        <v>137.8352090297224</v>
+        <v>137.8352090297208</v>
       </c>
       <c r="H101" t="n">
-        <v>6.381950443316025</v>
+        <v>6.381950443316246</v>
       </c>
       <c r="I101" t="n">
         <v>17.85727084796145</v>
@@ -5695,16 +5695,16 @@
         <v>33.52305968980325</v>
       </c>
       <c r="K101" t="n">
-        <v>17.05433501144975</v>
+        <v>17.05433501144987</v>
       </c>
       <c r="L101" t="n">
-        <v>21.64236187384642</v>
+        <v>21.64236187384743</v>
       </c>
       <c r="M101" t="n">
-        <v>0.3598079649451069</v>
+        <v>0.3598079649450763</v>
       </c>
       <c r="N101" t="n">
-        <v>1.910635498348884</v>
+        <v>1.910635498348702</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0002865000000014106</v>
+        <v>0.0001912999999973408</v>
       </c>
     </row>
   </sheetData>
